--- a/基本設計書.xlsx
+++ b/基本設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/94884d7d56b8c7b8/Desktop/ITスクール/07_Design/【実習】各種設計書（テンプレ）/基本設計/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="692" documentId="8_{6DED45CD-63B1-4E73-8663-77FF5C0E990C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B268245E-F03C-4599-AD33-B2946F782BF7}"/>
+  <xr:revisionPtr revIDLastSave="694" documentId="8_{6DED45CD-63B1-4E73-8663-77FF5C0E990C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2ED4BDB-7772-48B8-AE39-A2B256049ABE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="774" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="774" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="26" r:id="rId1"/>
@@ -2035,7 +2035,7 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2193,6 +2193,36 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="6" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="4" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="4" applyFill="1" applyBorder="1"/>
@@ -2220,21 +2250,6 @@
     <xf numFmtId="14" fontId="6" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2257,6 +2272,21 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2316,6 +2346,15 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="31" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2325,49 +2364,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -2530,8 +2528,70 @@
                 <a:latin typeface="ＭＳ Ｐゴシック"/>
                 <a:ea typeface="ＭＳ Ｐゴシック"/>
               </a:rPr>
-              <a:t>2005/5/15</a:t>
+              <a:t>20</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t>2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t>5/</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t>9</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t>/</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t>30</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -3697,8 +3757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV43"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AA28" sqref="AA28"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AD5" sqref="AD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.95" customHeight="1"/>
@@ -4174,20 +4234,20 @@
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="15"/>
-      <c r="F8" s="75" t="s">
+      <c r="F8" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="76"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="76"/>
-      <c r="O8" s="76"/>
-      <c r="P8" s="76"/>
-      <c r="Q8" s="77"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="88"/>
+      <c r="M8" s="88"/>
+      <c r="N8" s="88"/>
+      <c r="O8" s="88"/>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="89"/>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
       <c r="T8" s="8"/>
@@ -4206,26 +4266,26 @@
     </row>
     <row r="9" spans="1:256" ht="12.95" customHeight="1">
       <c r="A9" s="11"/>
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="84" t="s">
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="85"/>
-      <c r="M9" s="85"/>
-      <c r="N9" s="85"/>
-      <c r="O9" s="85"/>
-      <c r="P9" s="85"/>
-      <c r="Q9" s="86"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="97"/>
+      <c r="M9" s="97"/>
+      <c r="N9" s="97"/>
+      <c r="O9" s="97"/>
+      <c r="P9" s="97"/>
+      <c r="Q9" s="98"/>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
@@ -4244,22 +4304,22 @@
     </row>
     <row r="10" spans="1:256" ht="12.95" customHeight="1">
       <c r="A10" s="11"/>
-      <c r="B10" s="81"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="88"/>
-      <c r="M10" s="88"/>
-      <c r="N10" s="88"/>
-      <c r="O10" s="88"/>
-      <c r="P10" s="88"/>
-      <c r="Q10" s="89"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="100"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="100"/>
+      <c r="M10" s="100"/>
+      <c r="N10" s="100"/>
+      <c r="O10" s="100"/>
+      <c r="P10" s="100"/>
+      <c r="Q10" s="101"/>
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
       <c r="T10" s="8"/>
@@ -4470,26 +4530,26 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="90" t="s">
+      <c r="H17" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="I17" s="90"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="90"/>
-      <c r="L17" s="90"/>
-      <c r="M17" s="90"/>
-      <c r="N17" s="90"/>
-      <c r="O17" s="90"/>
-      <c r="P17" s="90"/>
-      <c r="Q17" s="90"/>
-      <c r="R17" s="90"/>
-      <c r="S17" s="90"/>
-      <c r="T17" s="90"/>
-      <c r="U17" s="90"/>
-      <c r="V17" s="90"/>
-      <c r="W17" s="90"/>
-      <c r="X17" s="90"/>
-      <c r="Y17" s="90"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="102"/>
+      <c r="K17" s="102"/>
+      <c r="L17" s="102"/>
+      <c r="M17" s="102"/>
+      <c r="N17" s="102"/>
+      <c r="O17" s="102"/>
+      <c r="P17" s="102"/>
+      <c r="Q17" s="102"/>
+      <c r="R17" s="102"/>
+      <c r="S17" s="102"/>
+      <c r="T17" s="102"/>
+      <c r="U17" s="102"/>
+      <c r="V17" s="102"/>
+      <c r="W17" s="102"/>
+      <c r="X17" s="102"/>
+      <c r="Y17" s="102"/>
       <c r="AA17" s="8"/>
       <c r="AB17" s="8"/>
       <c r="AC17" s="8"/>
@@ -4505,24 +4565,24 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="90"/>
-      <c r="K18" s="90"/>
-      <c r="L18" s="90"/>
-      <c r="M18" s="90"/>
-      <c r="N18" s="90"/>
-      <c r="O18" s="90"/>
-      <c r="P18" s="90"/>
-      <c r="Q18" s="90"/>
-      <c r="R18" s="90"/>
-      <c r="S18" s="90"/>
-      <c r="T18" s="90"/>
-      <c r="U18" s="90"/>
-      <c r="V18" s="90"/>
-      <c r="W18" s="90"/>
-      <c r="X18" s="90"/>
-      <c r="Y18" s="90"/>
+      <c r="H18" s="102"/>
+      <c r="I18" s="102"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="102"/>
+      <c r="L18" s="102"/>
+      <c r="M18" s="102"/>
+      <c r="N18" s="102"/>
+      <c r="O18" s="102"/>
+      <c r="P18" s="102"/>
+      <c r="Q18" s="102"/>
+      <c r="R18" s="102"/>
+      <c r="S18" s="102"/>
+      <c r="T18" s="102"/>
+      <c r="U18" s="102"/>
+      <c r="V18" s="102"/>
+      <c r="W18" s="102"/>
+      <c r="X18" s="102"/>
+      <c r="Y18" s="102"/>
       <c r="AA18" s="8"/>
       <c r="AB18" s="8"/>
       <c r="AC18" s="8"/>
@@ -4538,24 +4598,24 @@
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="90"/>
-      <c r="J19" s="90"/>
-      <c r="K19" s="90"/>
-      <c r="L19" s="90"/>
-      <c r="M19" s="90"/>
-      <c r="N19" s="90"/>
-      <c r="O19" s="90"/>
-      <c r="P19" s="90"/>
-      <c r="Q19" s="90"/>
-      <c r="R19" s="90"/>
-      <c r="S19" s="90"/>
-      <c r="T19" s="90"/>
-      <c r="U19" s="90"/>
-      <c r="V19" s="90"/>
-      <c r="W19" s="90"/>
-      <c r="X19" s="90"/>
-      <c r="Y19" s="90"/>
+      <c r="H19" s="102"/>
+      <c r="I19" s="102"/>
+      <c r="J19" s="102"/>
+      <c r="K19" s="102"/>
+      <c r="L19" s="102"/>
+      <c r="M19" s="102"/>
+      <c r="N19" s="102"/>
+      <c r="O19" s="102"/>
+      <c r="P19" s="102"/>
+      <c r="Q19" s="102"/>
+      <c r="R19" s="102"/>
+      <c r="S19" s="102"/>
+      <c r="T19" s="102"/>
+      <c r="U19" s="102"/>
+      <c r="V19" s="102"/>
+      <c r="W19" s="102"/>
+      <c r="X19" s="102"/>
+      <c r="Y19" s="102"/>
       <c r="Z19" s="8"/>
       <c r="AA19" s="8"/>
       <c r="AB19" s="8"/>
@@ -4783,12 +4843,12 @@
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
-      <c r="F26" s="91">
+      <c r="F26" s="103">
         <v>45930</v>
       </c>
-      <c r="G26" s="92"/>
-      <c r="H26" s="92"/>
-      <c r="I26" s="93"/>
+      <c r="G26" s="104"/>
+      <c r="H26" s="104"/>
+      <c r="I26" s="105"/>
       <c r="J26" s="17" t="s">
         <v>11</v>
       </c>
@@ -5434,127 +5494,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="100"/>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
-      <c r="W1" s="100"/>
-      <c r="X1" s="100"/>
-      <c r="Y1" s="100"/>
-      <c r="Z1" s="100"/>
-      <c r="AA1" s="100"/>
-      <c r="AB1" s="100"/>
-      <c r="AC1" s="100"/>
-      <c r="AD1" s="100"/>
-      <c r="AE1" s="100"/>
-      <c r="AF1" s="100"/>
-      <c r="AG1" s="101"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="107"/>
+      <c r="T1" s="107"/>
+      <c r="U1" s="107"/>
+      <c r="V1" s="107"/>
+      <c r="W1" s="107"/>
+      <c r="X1" s="107"/>
+      <c r="Y1" s="107"/>
+      <c r="Z1" s="107"/>
+      <c r="AA1" s="107"/>
+      <c r="AB1" s="107"/>
+      <c r="AC1" s="107"/>
+      <c r="AD1" s="107"/>
+      <c r="AE1" s="107"/>
+      <c r="AF1" s="107"/>
+      <c r="AG1" s="108"/>
     </row>
     <row r="2" spans="1:33">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="105" t="s">
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="103"/>
-      <c r="S2" s="103"/>
-      <c r="T2" s="103"/>
-      <c r="U2" s="103"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="103"/>
-      <c r="X2" s="103"/>
-      <c r="Y2" s="103"/>
-      <c r="Z2" s="103"/>
-      <c r="AA2" s="103"/>
-      <c r="AB2" s="103"/>
-      <c r="AC2" s="104"/>
-      <c r="AD2" s="105" t="s">
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
+      <c r="W2" s="110"/>
+      <c r="X2" s="110"/>
+      <c r="Y2" s="110"/>
+      <c r="Z2" s="110"/>
+      <c r="AA2" s="110"/>
+      <c r="AB2" s="110"/>
+      <c r="AC2" s="111"/>
+      <c r="AD2" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="AE2" s="104"/>
-      <c r="AF2" s="105" t="s">
+      <c r="AE2" s="111"/>
+      <c r="AF2" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="AG2" s="106"/>
+      <c r="AG2" s="113"/>
     </row>
     <row r="3" spans="1:33" ht="14.25" thickBot="1">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="97" t="s">
+      <c r="B3" s="115"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="117" t="s">
         <v>143</v>
       </c>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95"/>
-      <c r="Q3" s="95"/>
-      <c r="R3" s="95"/>
-      <c r="S3" s="95"/>
-      <c r="T3" s="95"/>
-      <c r="U3" s="95"/>
-      <c r="V3" s="95"/>
-      <c r="W3" s="95"/>
-      <c r="X3" s="95"/>
-      <c r="Y3" s="95"/>
-      <c r="Z3" s="95"/>
-      <c r="AA3" s="95"/>
-      <c r="AB3" s="95"/>
-      <c r="AC3" s="96"/>
-      <c r="AD3" s="97" t="s">
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
+      <c r="U3" s="115"/>
+      <c r="V3" s="115"/>
+      <c r="W3" s="115"/>
+      <c r="X3" s="115"/>
+      <c r="Y3" s="115"/>
+      <c r="Z3" s="115"/>
+      <c r="AA3" s="115"/>
+      <c r="AB3" s="115"/>
+      <c r="AC3" s="116"/>
+      <c r="AD3" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="AE3" s="96"/>
-      <c r="AF3" s="97" t="s">
+      <c r="AE3" s="116"/>
+      <c r="AF3" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="AG3" s="98"/>
+      <c r="AG3" s="118"/>
     </row>
     <row r="4" spans="1:33">
       <c r="A4" s="28"/>
@@ -5706,19 +5766,19 @@
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
       <c r="I8" s="37"/>
-      <c r="J8" s="107" t="s">
+      <c r="J8" s="119" t="s">
         <v>49</v>
       </c>
-      <c r="K8" s="108"/>
-      <c r="L8" s="108"/>
-      <c r="M8" s="108"/>
-      <c r="N8" s="108"/>
-      <c r="O8" s="108"/>
-      <c r="P8" s="108"/>
-      <c r="Q8" s="108"/>
-      <c r="R8" s="108"/>
-      <c r="S8" s="108"/>
-      <c r="T8" s="109"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="120"/>
+      <c r="M8" s="120"/>
+      <c r="N8" s="120"/>
+      <c r="O8" s="120"/>
+      <c r="P8" s="120"/>
+      <c r="Q8" s="120"/>
+      <c r="R8" s="120"/>
+      <c r="S8" s="120"/>
+      <c r="T8" s="121"/>
       <c r="U8" s="37"/>
       <c r="V8" s="37"/>
       <c r="W8" s="32"/>
@@ -5743,17 +5803,17 @@
       <c r="G9" s="32"/>
       <c r="H9" s="32"/>
       <c r="I9" s="37"/>
-      <c r="J9" s="110"/>
-      <c r="K9" s="111"/>
-      <c r="L9" s="111"/>
-      <c r="M9" s="111"/>
-      <c r="N9" s="111"/>
-      <c r="O9" s="111"/>
-      <c r="P9" s="111"/>
-      <c r="Q9" s="111"/>
-      <c r="R9" s="111"/>
-      <c r="S9" s="111"/>
-      <c r="T9" s="112"/>
+      <c r="J9" s="122"/>
+      <c r="K9" s="123"/>
+      <c r="L9" s="123"/>
+      <c r="M9" s="123"/>
+      <c r="N9" s="123"/>
+      <c r="O9" s="123"/>
+      <c r="P9" s="123"/>
+      <c r="Q9" s="123"/>
+      <c r="R9" s="123"/>
+      <c r="S9" s="123"/>
+      <c r="T9" s="124"/>
       <c r="U9" s="37"/>
       <c r="V9" s="37"/>
       <c r="W9" s="32"/>
@@ -6167,15 +6227,15 @@
       <c r="I21" s="37"/>
       <c r="J21" s="38"/>
       <c r="K21" s="37"/>
-      <c r="L21" s="121" t="s">
+      <c r="L21" s="133" t="s">
         <v>145</v>
       </c>
-      <c r="M21" s="121"/>
-      <c r="N21" s="121"/>
-      <c r="O21" s="121"/>
-      <c r="P21" s="121"/>
-      <c r="Q21" s="121"/>
-      <c r="R21" s="121"/>
+      <c r="M21" s="133"/>
+      <c r="N21" s="133"/>
+      <c r="O21" s="133"/>
+      <c r="P21" s="133"/>
+      <c r="Q21" s="133"/>
+      <c r="R21" s="133"/>
       <c r="S21" s="37"/>
       <c r="T21" s="42"/>
       <c r="U21" s="37"/>
@@ -6696,11 +6756,11 @@
       <c r="K36" s="37"/>
       <c r="L36" s="37"/>
       <c r="M36" s="37"/>
-      <c r="N36" s="113" t="s">
+      <c r="N36" s="125" t="s">
         <v>55</v>
       </c>
-      <c r="O36" s="114"/>
-      <c r="P36" s="115"/>
+      <c r="O36" s="126"/>
+      <c r="P36" s="127"/>
       <c r="Q36" s="37"/>
       <c r="R36" s="37"/>
       <c r="S36" s="37"/>
@@ -6733,9 +6793,9 @@
       <c r="K37" s="37"/>
       <c r="L37" s="37"/>
       <c r="M37" s="37"/>
-      <c r="N37" s="116"/>
-      <c r="O37" s="117"/>
-      <c r="P37" s="118"/>
+      <c r="N37" s="128"/>
+      <c r="O37" s="129"/>
+      <c r="P37" s="130"/>
       <c r="Q37" s="37"/>
       <c r="R37" s="37"/>
       <c r="S37" s="37"/>
@@ -6799,19 +6859,19 @@
       <c r="G39" s="32"/>
       <c r="H39" s="32"/>
       <c r="I39" s="37"/>
-      <c r="J39" s="107" t="s">
+      <c r="J39" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="K39" s="108"/>
-      <c r="L39" s="108"/>
-      <c r="M39" s="108"/>
-      <c r="N39" s="108"/>
-      <c r="O39" s="108"/>
-      <c r="P39" s="108"/>
-      <c r="Q39" s="108"/>
-      <c r="R39" s="108"/>
-      <c r="S39" s="108"/>
-      <c r="T39" s="109"/>
+      <c r="K39" s="120"/>
+      <c r="L39" s="120"/>
+      <c r="M39" s="120"/>
+      <c r="N39" s="120"/>
+      <c r="O39" s="120"/>
+      <c r="P39" s="120"/>
+      <c r="Q39" s="120"/>
+      <c r="R39" s="120"/>
+      <c r="S39" s="120"/>
+      <c r="T39" s="121"/>
       <c r="U39" s="37"/>
       <c r="V39" s="37"/>
       <c r="W39" s="32"/>
@@ -6836,17 +6896,17 @@
       <c r="G40" s="32"/>
       <c r="H40" s="32"/>
       <c r="I40" s="37"/>
-      <c r="J40" s="110"/>
-      <c r="K40" s="111"/>
-      <c r="L40" s="111"/>
-      <c r="M40" s="111"/>
-      <c r="N40" s="111"/>
-      <c r="O40" s="111"/>
-      <c r="P40" s="111"/>
-      <c r="Q40" s="111"/>
-      <c r="R40" s="111"/>
-      <c r="S40" s="111"/>
-      <c r="T40" s="112"/>
+      <c r="J40" s="122"/>
+      <c r="K40" s="123"/>
+      <c r="L40" s="123"/>
+      <c r="M40" s="123"/>
+      <c r="N40" s="123"/>
+      <c r="O40" s="123"/>
+      <c r="P40" s="123"/>
+      <c r="Q40" s="123"/>
+      <c r="R40" s="123"/>
+      <c r="S40" s="123"/>
+      <c r="T40" s="124"/>
       <c r="U40" s="37"/>
       <c r="V40" s="37"/>
       <c r="W40" s="32"/>
@@ -7356,127 +7416,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="100"/>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
-      <c r="W1" s="100"/>
-      <c r="X1" s="100"/>
-      <c r="Y1" s="100"/>
-      <c r="Z1" s="100"/>
-      <c r="AA1" s="100"/>
-      <c r="AB1" s="100"/>
-      <c r="AC1" s="100"/>
-      <c r="AD1" s="100"/>
-      <c r="AE1" s="100"/>
-      <c r="AF1" s="100"/>
-      <c r="AG1" s="101"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="107"/>
+      <c r="T1" s="107"/>
+      <c r="U1" s="107"/>
+      <c r="V1" s="107"/>
+      <c r="W1" s="107"/>
+      <c r="X1" s="107"/>
+      <c r="Y1" s="107"/>
+      <c r="Z1" s="107"/>
+      <c r="AA1" s="107"/>
+      <c r="AB1" s="107"/>
+      <c r="AC1" s="107"/>
+      <c r="AD1" s="107"/>
+      <c r="AE1" s="107"/>
+      <c r="AF1" s="107"/>
+      <c r="AG1" s="108"/>
     </row>
     <row r="2" spans="1:33">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="105" t="s">
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="103"/>
-      <c r="S2" s="103"/>
-      <c r="T2" s="103"/>
-      <c r="U2" s="103"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="103"/>
-      <c r="X2" s="103"/>
-      <c r="Y2" s="103"/>
-      <c r="Z2" s="103"/>
-      <c r="AA2" s="103"/>
-      <c r="AB2" s="103"/>
-      <c r="AC2" s="104"/>
-      <c r="AD2" s="105" t="s">
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
+      <c r="W2" s="110"/>
+      <c r="X2" s="110"/>
+      <c r="Y2" s="110"/>
+      <c r="Z2" s="110"/>
+      <c r="AA2" s="110"/>
+      <c r="AB2" s="110"/>
+      <c r="AC2" s="111"/>
+      <c r="AD2" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="AE2" s="104"/>
-      <c r="AF2" s="105" t="s">
+      <c r="AE2" s="111"/>
+      <c r="AF2" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="AG2" s="106"/>
+      <c r="AG2" s="113"/>
     </row>
     <row r="3" spans="1:33" ht="14.25" thickBot="1">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="97" t="s">
+      <c r="B3" s="115"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="117" t="s">
         <v>135</v>
       </c>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95"/>
-      <c r="Q3" s="95"/>
-      <c r="R3" s="95"/>
-      <c r="S3" s="95"/>
-      <c r="T3" s="95"/>
-      <c r="U3" s="95"/>
-      <c r="V3" s="95"/>
-      <c r="W3" s="95"/>
-      <c r="X3" s="95"/>
-      <c r="Y3" s="95"/>
-      <c r="Z3" s="95"/>
-      <c r="AA3" s="95"/>
-      <c r="AB3" s="95"/>
-      <c r="AC3" s="96"/>
-      <c r="AD3" s="97" t="s">
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
+      <c r="U3" s="115"/>
+      <c r="V3" s="115"/>
+      <c r="W3" s="115"/>
+      <c r="X3" s="115"/>
+      <c r="Y3" s="115"/>
+      <c r="Z3" s="115"/>
+      <c r="AA3" s="115"/>
+      <c r="AB3" s="115"/>
+      <c r="AC3" s="116"/>
+      <c r="AD3" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="AE3" s="96"/>
-      <c r="AF3" s="97" t="s">
+      <c r="AE3" s="116"/>
+      <c r="AF3" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="AG3" s="98"/>
+      <c r="AG3" s="118"/>
     </row>
     <row r="4" spans="1:33">
       <c r="A4" s="28"/>
@@ -7593,19 +7653,19 @@
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
       <c r="I7" s="37"/>
-      <c r="J7" s="107" t="s">
+      <c r="J7" s="119" t="s">
         <v>49</v>
       </c>
-      <c r="K7" s="108"/>
-      <c r="L7" s="108"/>
-      <c r="M7" s="108"/>
-      <c r="N7" s="108"/>
-      <c r="O7" s="108"/>
-      <c r="P7" s="108"/>
-      <c r="Q7" s="108"/>
-      <c r="R7" s="108"/>
-      <c r="S7" s="108"/>
-      <c r="T7" s="109"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="120"/>
+      <c r="M7" s="120"/>
+      <c r="N7" s="120"/>
+      <c r="O7" s="120"/>
+      <c r="P7" s="120"/>
+      <c r="Q7" s="120"/>
+      <c r="R7" s="120"/>
+      <c r="S7" s="120"/>
+      <c r="T7" s="121"/>
       <c r="U7" s="37"/>
       <c r="V7" s="32"/>
       <c r="W7" s="32"/>
@@ -7630,17 +7690,17 @@
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
       <c r="I8" s="37"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="111"/>
-      <c r="L8" s="111"/>
-      <c r="M8" s="111"/>
-      <c r="N8" s="111"/>
-      <c r="O8" s="111"/>
-      <c r="P8" s="111"/>
-      <c r="Q8" s="111"/>
-      <c r="R8" s="111"/>
-      <c r="S8" s="111"/>
-      <c r="T8" s="112"/>
+      <c r="J8" s="122"/>
+      <c r="K8" s="123"/>
+      <c r="L8" s="123"/>
+      <c r="M8" s="123"/>
+      <c r="N8" s="123"/>
+      <c r="O8" s="123"/>
+      <c r="P8" s="123"/>
+      <c r="Q8" s="123"/>
+      <c r="R8" s="123"/>
+      <c r="S8" s="123"/>
+      <c r="T8" s="124"/>
       <c r="U8" s="37"/>
       <c r="V8" s="32"/>
       <c r="W8" s="32"/>
@@ -7666,10 +7726,10 @@
       <c r="H9" s="32"/>
       <c r="I9" s="37"/>
       <c r="J9" s="38"/>
-      <c r="K9" s="132" t="s">
+      <c r="K9" s="144" t="s">
         <v>131</v>
       </c>
-      <c r="L9" s="132"/>
+      <c r="L9" s="144"/>
       <c r="M9" s="37"/>
       <c r="N9" s="37"/>
       <c r="O9" s="37"/>
@@ -8299,10 +8359,10 @@
         <v>32</v>
       </c>
       <c r="N26" s="37"/>
-      <c r="O26" s="119">
+      <c r="O26" s="131">
         <v>1234567</v>
       </c>
-      <c r="P26" s="120"/>
+      <c r="P26" s="132"/>
       <c r="Q26" s="37"/>
       <c r="R26" s="37"/>
       <c r="S26" s="37"/>
@@ -8373,10 +8433,10 @@
         <v>31</v>
       </c>
       <c r="N28" s="37"/>
-      <c r="O28" s="119" t="s">
+      <c r="O28" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="P28" s="120"/>
+      <c r="P28" s="132"/>
       <c r="Q28" s="37"/>
       <c r="R28" s="37"/>
       <c r="S28" s="37"/>
@@ -8701,11 +8761,11 @@
       <c r="K37" s="37"/>
       <c r="L37" s="37"/>
       <c r="M37" s="37"/>
-      <c r="N37" s="113" t="s">
+      <c r="N37" s="125" t="s">
         <v>23</v>
       </c>
-      <c r="O37" s="114"/>
-      <c r="P37" s="115"/>
+      <c r="O37" s="126"/>
+      <c r="P37" s="127"/>
       <c r="Q37" s="37"/>
       <c r="R37" s="37"/>
       <c r="S37" s="37"/>
@@ -8738,9 +8798,9 @@
       <c r="K38" s="37"/>
       <c r="L38" s="37"/>
       <c r="M38" s="37"/>
-      <c r="N38" s="116"/>
-      <c r="O38" s="117"/>
-      <c r="P38" s="118"/>
+      <c r="N38" s="128"/>
+      <c r="O38" s="129"/>
+      <c r="P38" s="130"/>
       <c r="Q38" s="37"/>
       <c r="R38" s="37"/>
       <c r="S38" s="37"/>
@@ -8804,19 +8864,19 @@
       <c r="G40" s="32"/>
       <c r="H40" s="32"/>
       <c r="I40" s="37"/>
-      <c r="J40" s="107" t="s">
+      <c r="J40" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="K40" s="108"/>
-      <c r="L40" s="108"/>
-      <c r="M40" s="108"/>
-      <c r="N40" s="108"/>
-      <c r="O40" s="108"/>
-      <c r="P40" s="108"/>
-      <c r="Q40" s="108"/>
-      <c r="R40" s="108"/>
-      <c r="S40" s="108"/>
-      <c r="T40" s="109"/>
+      <c r="K40" s="120"/>
+      <c r="L40" s="120"/>
+      <c r="M40" s="120"/>
+      <c r="N40" s="120"/>
+      <c r="O40" s="120"/>
+      <c r="P40" s="120"/>
+      <c r="Q40" s="120"/>
+      <c r="R40" s="120"/>
+      <c r="S40" s="120"/>
+      <c r="T40" s="121"/>
       <c r="U40" s="37"/>
       <c r="V40" s="32"/>
       <c r="W40" s="32"/>
@@ -8841,17 +8901,17 @@
       <c r="G41" s="32"/>
       <c r="H41" s="32"/>
       <c r="I41" s="37"/>
-      <c r="J41" s="110"/>
-      <c r="K41" s="111"/>
-      <c r="L41" s="111"/>
-      <c r="M41" s="111"/>
-      <c r="N41" s="111"/>
-      <c r="O41" s="111"/>
-      <c r="P41" s="111"/>
-      <c r="Q41" s="111"/>
-      <c r="R41" s="111"/>
-      <c r="S41" s="111"/>
-      <c r="T41" s="112"/>
+      <c r="J41" s="122"/>
+      <c r="K41" s="123"/>
+      <c r="L41" s="123"/>
+      <c r="M41" s="123"/>
+      <c r="N41" s="123"/>
+      <c r="O41" s="123"/>
+      <c r="P41" s="123"/>
+      <c r="Q41" s="123"/>
+      <c r="R41" s="123"/>
+      <c r="S41" s="123"/>
+      <c r="T41" s="124"/>
       <c r="U41" s="37"/>
       <c r="V41" s="32"/>
       <c r="W41" s="32"/>
@@ -9288,12 +9348,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="J7:T8"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="N37:P38"/>
-    <mergeCell ref="J40:T41"/>
-    <mergeCell ref="K9:L9"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
@@ -9303,6 +9357,12 @@
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="J7:T8"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="N37:P38"/>
+    <mergeCell ref="J40:T41"/>
+    <mergeCell ref="K9:L9"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9329,127 +9389,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="100"/>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
-      <c r="W1" s="100"/>
-      <c r="X1" s="100"/>
-      <c r="Y1" s="100"/>
-      <c r="Z1" s="100"/>
-      <c r="AA1" s="100"/>
-      <c r="AB1" s="100"/>
-      <c r="AC1" s="100"/>
-      <c r="AD1" s="100"/>
-      <c r="AE1" s="100"/>
-      <c r="AF1" s="100"/>
-      <c r="AG1" s="101"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="107"/>
+      <c r="T1" s="107"/>
+      <c r="U1" s="107"/>
+      <c r="V1" s="107"/>
+      <c r="W1" s="107"/>
+      <c r="X1" s="107"/>
+      <c r="Y1" s="107"/>
+      <c r="Z1" s="107"/>
+      <c r="AA1" s="107"/>
+      <c r="AB1" s="107"/>
+      <c r="AC1" s="107"/>
+      <c r="AD1" s="107"/>
+      <c r="AE1" s="107"/>
+      <c r="AF1" s="107"/>
+      <c r="AG1" s="108"/>
     </row>
     <row r="2" spans="1:33">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="105" t="s">
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="103"/>
-      <c r="S2" s="103"/>
-      <c r="T2" s="103"/>
-      <c r="U2" s="103"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="103"/>
-      <c r="X2" s="103"/>
-      <c r="Y2" s="103"/>
-      <c r="Z2" s="103"/>
-      <c r="AA2" s="103"/>
-      <c r="AB2" s="103"/>
-      <c r="AC2" s="104"/>
-      <c r="AD2" s="105" t="s">
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
+      <c r="W2" s="110"/>
+      <c r="X2" s="110"/>
+      <c r="Y2" s="110"/>
+      <c r="Z2" s="110"/>
+      <c r="AA2" s="110"/>
+      <c r="AB2" s="110"/>
+      <c r="AC2" s="111"/>
+      <c r="AD2" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="AE2" s="104"/>
-      <c r="AF2" s="105" t="s">
+      <c r="AE2" s="111"/>
+      <c r="AF2" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="AG2" s="106"/>
+      <c r="AG2" s="113"/>
     </row>
     <row r="3" spans="1:33" ht="14.25" thickBot="1">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="97" t="s">
+      <c r="B3" s="115"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="117" t="s">
         <v>137</v>
       </c>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95"/>
-      <c r="Q3" s="95"/>
-      <c r="R3" s="95"/>
-      <c r="S3" s="95"/>
-      <c r="T3" s="95"/>
-      <c r="U3" s="95"/>
-      <c r="V3" s="95"/>
-      <c r="W3" s="95"/>
-      <c r="X3" s="95"/>
-      <c r="Y3" s="95"/>
-      <c r="Z3" s="95"/>
-      <c r="AA3" s="95"/>
-      <c r="AB3" s="95"/>
-      <c r="AC3" s="96"/>
-      <c r="AD3" s="97" t="s">
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
+      <c r="U3" s="115"/>
+      <c r="V3" s="115"/>
+      <c r="W3" s="115"/>
+      <c r="X3" s="115"/>
+      <c r="Y3" s="115"/>
+      <c r="Z3" s="115"/>
+      <c r="AA3" s="115"/>
+      <c r="AB3" s="115"/>
+      <c r="AC3" s="116"/>
+      <c r="AD3" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="AE3" s="96"/>
-      <c r="AF3" s="97" t="s">
+      <c r="AE3" s="116"/>
+      <c r="AF3" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="AG3" s="98"/>
+      <c r="AG3" s="118"/>
     </row>
     <row r="4" spans="1:33">
       <c r="A4" s="28"/>
@@ -9636,19 +9696,19 @@
       <c r="G9" s="32"/>
       <c r="H9" s="32"/>
       <c r="I9" s="37"/>
-      <c r="J9" s="107" t="s">
+      <c r="J9" s="119" t="s">
         <v>49</v>
       </c>
-      <c r="K9" s="108"/>
-      <c r="L9" s="108"/>
-      <c r="M9" s="108"/>
-      <c r="N9" s="108"/>
-      <c r="O9" s="108"/>
-      <c r="P9" s="108"/>
-      <c r="Q9" s="108"/>
-      <c r="R9" s="108"/>
-      <c r="S9" s="108"/>
-      <c r="T9" s="109"/>
+      <c r="K9" s="120"/>
+      <c r="L9" s="120"/>
+      <c r="M9" s="120"/>
+      <c r="N9" s="120"/>
+      <c r="O9" s="120"/>
+      <c r="P9" s="120"/>
+      <c r="Q9" s="120"/>
+      <c r="R9" s="120"/>
+      <c r="S9" s="120"/>
+      <c r="T9" s="121"/>
       <c r="U9" s="37"/>
       <c r="V9" s="37"/>
       <c r="W9" s="32"/>
@@ -9673,17 +9733,17 @@
       <c r="G10" s="32"/>
       <c r="H10" s="32"/>
       <c r="I10" s="37"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="111"/>
-      <c r="L10" s="111"/>
-      <c r="M10" s="111"/>
-      <c r="N10" s="111"/>
-      <c r="O10" s="111"/>
-      <c r="P10" s="111"/>
-      <c r="Q10" s="111"/>
-      <c r="R10" s="111"/>
-      <c r="S10" s="111"/>
-      <c r="T10" s="112"/>
+      <c r="J10" s="122"/>
+      <c r="K10" s="123"/>
+      <c r="L10" s="123"/>
+      <c r="M10" s="123"/>
+      <c r="N10" s="123"/>
+      <c r="O10" s="123"/>
+      <c r="P10" s="123"/>
+      <c r="Q10" s="123"/>
+      <c r="R10" s="123"/>
+      <c r="S10" s="123"/>
+      <c r="T10" s="124"/>
       <c r="U10" s="37"/>
       <c r="V10" s="37"/>
       <c r="W10" s="32"/>
@@ -10740,17 +10800,17 @@
       <c r="I39" s="37"/>
       <c r="J39" s="38"/>
       <c r="K39" s="37"/>
-      <c r="L39" s="113" t="s">
+      <c r="L39" s="125" t="s">
         <v>51</v>
       </c>
-      <c r="M39" s="114"/>
-      <c r="N39" s="115"/>
+      <c r="M39" s="126"/>
+      <c r="N39" s="127"/>
       <c r="O39" s="37"/>
-      <c r="P39" s="113" t="s">
+      <c r="P39" s="125" t="s">
         <v>138</v>
       </c>
-      <c r="Q39" s="114"/>
-      <c r="R39" s="115"/>
+      <c r="Q39" s="126"/>
+      <c r="R39" s="127"/>
       <c r="S39" s="37"/>
       <c r="T39" s="42"/>
       <c r="U39" s="37"/>
@@ -10779,13 +10839,13 @@
       <c r="I40" s="37"/>
       <c r="J40" s="38"/>
       <c r="K40" s="37"/>
-      <c r="L40" s="116"/>
-      <c r="M40" s="117"/>
-      <c r="N40" s="118"/>
+      <c r="L40" s="128"/>
+      <c r="M40" s="129"/>
+      <c r="N40" s="130"/>
       <c r="O40" s="37"/>
-      <c r="P40" s="116"/>
-      <c r="Q40" s="117"/>
-      <c r="R40" s="118"/>
+      <c r="P40" s="128"/>
+      <c r="Q40" s="129"/>
+      <c r="R40" s="130"/>
       <c r="S40" s="37"/>
       <c r="T40" s="42"/>
       <c r="U40" s="37"/>
@@ -10847,19 +10907,19 @@
       <c r="G42" s="32"/>
       <c r="H42" s="32"/>
       <c r="I42" s="37"/>
-      <c r="J42" s="107" t="s">
+      <c r="J42" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="K42" s="108"/>
-      <c r="L42" s="108"/>
-      <c r="M42" s="108"/>
-      <c r="N42" s="108"/>
-      <c r="O42" s="108"/>
-      <c r="P42" s="108"/>
-      <c r="Q42" s="108"/>
-      <c r="R42" s="108"/>
-      <c r="S42" s="108"/>
-      <c r="T42" s="109"/>
+      <c r="K42" s="120"/>
+      <c r="L42" s="120"/>
+      <c r="M42" s="120"/>
+      <c r="N42" s="120"/>
+      <c r="O42" s="120"/>
+      <c r="P42" s="120"/>
+      <c r="Q42" s="120"/>
+      <c r="R42" s="120"/>
+      <c r="S42" s="120"/>
+      <c r="T42" s="121"/>
       <c r="U42" s="37"/>
       <c r="V42" s="37"/>
       <c r="W42" s="32"/>
@@ -10884,17 +10944,17 @@
       <c r="G43" s="32"/>
       <c r="H43" s="32"/>
       <c r="I43" s="37"/>
-      <c r="J43" s="110"/>
-      <c r="K43" s="111"/>
-      <c r="L43" s="111"/>
-      <c r="M43" s="111"/>
-      <c r="N43" s="111"/>
-      <c r="O43" s="111"/>
-      <c r="P43" s="111"/>
-      <c r="Q43" s="111"/>
-      <c r="R43" s="111"/>
-      <c r="S43" s="111"/>
-      <c r="T43" s="112"/>
+      <c r="J43" s="122"/>
+      <c r="K43" s="123"/>
+      <c r="L43" s="123"/>
+      <c r="M43" s="123"/>
+      <c r="N43" s="123"/>
+      <c r="O43" s="123"/>
+      <c r="P43" s="123"/>
+      <c r="Q43" s="123"/>
+      <c r="R43" s="123"/>
+      <c r="S43" s="123"/>
+      <c r="T43" s="124"/>
       <c r="U43" s="37"/>
       <c r="V43" s="37"/>
       <c r="W43" s="32"/>
@@ -11285,7 +11345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7667BC95-0088-43CE-AD8A-F9DD186C6C76}">
   <dimension ref="A1:AG53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
@@ -11300,127 +11360,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="100"/>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
-      <c r="W1" s="100"/>
-      <c r="X1" s="100"/>
-      <c r="Y1" s="100"/>
-      <c r="Z1" s="100"/>
-      <c r="AA1" s="100"/>
-      <c r="AB1" s="100"/>
-      <c r="AC1" s="100"/>
-      <c r="AD1" s="100"/>
-      <c r="AE1" s="100"/>
-      <c r="AF1" s="100"/>
-      <c r="AG1" s="101"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="107"/>
+      <c r="T1" s="107"/>
+      <c r="U1" s="107"/>
+      <c r="V1" s="107"/>
+      <c r="W1" s="107"/>
+      <c r="X1" s="107"/>
+      <c r="Y1" s="107"/>
+      <c r="Z1" s="107"/>
+      <c r="AA1" s="107"/>
+      <c r="AB1" s="107"/>
+      <c r="AC1" s="107"/>
+      <c r="AD1" s="107"/>
+      <c r="AE1" s="107"/>
+      <c r="AF1" s="107"/>
+      <c r="AG1" s="108"/>
     </row>
     <row r="2" spans="1:33">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="105" t="s">
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="103"/>
-      <c r="S2" s="103"/>
-      <c r="T2" s="103"/>
-      <c r="U2" s="103"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="103"/>
-      <c r="X2" s="103"/>
-      <c r="Y2" s="103"/>
-      <c r="Z2" s="103"/>
-      <c r="AA2" s="103"/>
-      <c r="AB2" s="103"/>
-      <c r="AC2" s="104"/>
-      <c r="AD2" s="105" t="s">
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
+      <c r="W2" s="110"/>
+      <c r="X2" s="110"/>
+      <c r="Y2" s="110"/>
+      <c r="Z2" s="110"/>
+      <c r="AA2" s="110"/>
+      <c r="AB2" s="110"/>
+      <c r="AC2" s="111"/>
+      <c r="AD2" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="AE2" s="104"/>
-      <c r="AF2" s="105" t="s">
+      <c r="AE2" s="111"/>
+      <c r="AF2" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="AG2" s="106"/>
+      <c r="AG2" s="113"/>
     </row>
     <row r="3" spans="1:33" ht="14.25" thickBot="1">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="97" t="s">
+      <c r="B3" s="115"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="117" t="s">
         <v>146</v>
       </c>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95"/>
-      <c r="Q3" s="95"/>
-      <c r="R3" s="95"/>
-      <c r="S3" s="95"/>
-      <c r="T3" s="95"/>
-      <c r="U3" s="95"/>
-      <c r="V3" s="95"/>
-      <c r="W3" s="95"/>
-      <c r="X3" s="95"/>
-      <c r="Y3" s="95"/>
-      <c r="Z3" s="95"/>
-      <c r="AA3" s="95"/>
-      <c r="AB3" s="95"/>
-      <c r="AC3" s="96"/>
-      <c r="AD3" s="97" t="s">
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
+      <c r="U3" s="115"/>
+      <c r="V3" s="115"/>
+      <c r="W3" s="115"/>
+      <c r="X3" s="115"/>
+      <c r="Y3" s="115"/>
+      <c r="Z3" s="115"/>
+      <c r="AA3" s="115"/>
+      <c r="AB3" s="115"/>
+      <c r="AC3" s="116"/>
+      <c r="AD3" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="AE3" s="96"/>
-      <c r="AF3" s="97" t="s">
+      <c r="AE3" s="116"/>
+      <c r="AF3" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="AG3" s="98"/>
+      <c r="AG3" s="118"/>
     </row>
     <row r="4" spans="1:33">
       <c r="A4" s="28"/>
@@ -11572,19 +11632,19 @@
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
       <c r="I8" s="37"/>
-      <c r="J8" s="107" t="s">
+      <c r="J8" s="119" t="s">
         <v>49</v>
       </c>
-      <c r="K8" s="108"/>
-      <c r="L8" s="108"/>
-      <c r="M8" s="108"/>
-      <c r="N8" s="108"/>
-      <c r="O8" s="108"/>
-      <c r="P8" s="108"/>
-      <c r="Q8" s="108"/>
-      <c r="R8" s="108"/>
-      <c r="S8" s="108"/>
-      <c r="T8" s="109"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="120"/>
+      <c r="M8" s="120"/>
+      <c r="N8" s="120"/>
+      <c r="O8" s="120"/>
+      <c r="P8" s="120"/>
+      <c r="Q8" s="120"/>
+      <c r="R8" s="120"/>
+      <c r="S8" s="120"/>
+      <c r="T8" s="121"/>
       <c r="U8" s="37"/>
       <c r="V8" s="37"/>
       <c r="W8" s="32"/>
@@ -11609,17 +11669,17 @@
       <c r="G9" s="32"/>
       <c r="H9" s="32"/>
       <c r="I9" s="37"/>
-      <c r="J9" s="110"/>
-      <c r="K9" s="111"/>
-      <c r="L9" s="111"/>
-      <c r="M9" s="111"/>
-      <c r="N9" s="111"/>
-      <c r="O9" s="111"/>
-      <c r="P9" s="111"/>
-      <c r="Q9" s="111"/>
-      <c r="R9" s="111"/>
-      <c r="S9" s="111"/>
-      <c r="T9" s="112"/>
+      <c r="J9" s="122"/>
+      <c r="K9" s="123"/>
+      <c r="L9" s="123"/>
+      <c r="M9" s="123"/>
+      <c r="N9" s="123"/>
+      <c r="O9" s="123"/>
+      <c r="P9" s="123"/>
+      <c r="Q9" s="123"/>
+      <c r="R9" s="123"/>
+      <c r="S9" s="123"/>
+      <c r="T9" s="124"/>
       <c r="U9" s="37"/>
       <c r="V9" s="37"/>
       <c r="W9" s="32"/>
@@ -12033,15 +12093,15 @@
       <c r="I21" s="37"/>
       <c r="J21" s="38"/>
       <c r="K21" s="37"/>
-      <c r="L21" s="121" t="s">
+      <c r="L21" s="133" t="s">
         <v>148</v>
       </c>
-      <c r="M21" s="121"/>
-      <c r="N21" s="121"/>
-      <c r="O21" s="121"/>
-      <c r="P21" s="121"/>
-      <c r="Q21" s="121"/>
-      <c r="R21" s="121"/>
+      <c r="M21" s="133"/>
+      <c r="N21" s="133"/>
+      <c r="O21" s="133"/>
+      <c r="P21" s="133"/>
+      <c r="Q21" s="133"/>
+      <c r="R21" s="133"/>
       <c r="S21" s="37"/>
       <c r="T21" s="42"/>
       <c r="U21" s="37"/>
@@ -12562,11 +12622,11 @@
       <c r="K36" s="37"/>
       <c r="L36" s="37"/>
       <c r="M36" s="37"/>
-      <c r="N36" s="113" t="s">
+      <c r="N36" s="125" t="s">
         <v>55</v>
       </c>
-      <c r="O36" s="114"/>
-      <c r="P36" s="115"/>
+      <c r="O36" s="126"/>
+      <c r="P36" s="127"/>
       <c r="Q36" s="37"/>
       <c r="R36" s="37"/>
       <c r="S36" s="37"/>
@@ -12599,9 +12659,9 @@
       <c r="K37" s="37"/>
       <c r="L37" s="37"/>
       <c r="M37" s="37"/>
-      <c r="N37" s="116"/>
-      <c r="O37" s="117"/>
-      <c r="P37" s="118"/>
+      <c r="N37" s="128"/>
+      <c r="O37" s="129"/>
+      <c r="P37" s="130"/>
       <c r="Q37" s="37"/>
       <c r="R37" s="37"/>
       <c r="S37" s="37"/>
@@ -12665,19 +12725,19 @@
       <c r="G39" s="32"/>
       <c r="H39" s="32"/>
       <c r="I39" s="37"/>
-      <c r="J39" s="107" t="s">
+      <c r="J39" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="K39" s="108"/>
-      <c r="L39" s="108"/>
-      <c r="M39" s="108"/>
-      <c r="N39" s="108"/>
-      <c r="O39" s="108"/>
-      <c r="P39" s="108"/>
-      <c r="Q39" s="108"/>
-      <c r="R39" s="108"/>
-      <c r="S39" s="108"/>
-      <c r="T39" s="109"/>
+      <c r="K39" s="120"/>
+      <c r="L39" s="120"/>
+      <c r="M39" s="120"/>
+      <c r="N39" s="120"/>
+      <c r="O39" s="120"/>
+      <c r="P39" s="120"/>
+      <c r="Q39" s="120"/>
+      <c r="R39" s="120"/>
+      <c r="S39" s="120"/>
+      <c r="T39" s="121"/>
       <c r="U39" s="37"/>
       <c r="V39" s="37"/>
       <c r="W39" s="32"/>
@@ -12702,17 +12762,17 @@
       <c r="G40" s="32"/>
       <c r="H40" s="32"/>
       <c r="I40" s="37"/>
-      <c r="J40" s="110"/>
-      <c r="K40" s="111"/>
-      <c r="L40" s="111"/>
-      <c r="M40" s="111"/>
-      <c r="N40" s="111"/>
-      <c r="O40" s="111"/>
-      <c r="P40" s="111"/>
-      <c r="Q40" s="111"/>
-      <c r="R40" s="111"/>
-      <c r="S40" s="111"/>
-      <c r="T40" s="112"/>
+      <c r="J40" s="122"/>
+      <c r="K40" s="123"/>
+      <c r="L40" s="123"/>
+      <c r="M40" s="123"/>
+      <c r="N40" s="123"/>
+      <c r="O40" s="123"/>
+      <c r="P40" s="123"/>
+      <c r="Q40" s="123"/>
+      <c r="R40" s="123"/>
+      <c r="S40" s="123"/>
+      <c r="T40" s="124"/>
       <c r="U40" s="37"/>
       <c r="V40" s="37"/>
       <c r="W40" s="32"/>
@@ -13230,118 +13290,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="106" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="100"/>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
-      <c r="W1" s="100"/>
-      <c r="X1" s="100"/>
-      <c r="Y1" s="100"/>
-      <c r="Z1" s="100"/>
-      <c r="AA1" s="100"/>
-      <c r="AB1" s="100"/>
-      <c r="AC1" s="100"/>
-      <c r="AD1" s="101"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="107"/>
+      <c r="T1" s="107"/>
+      <c r="U1" s="107"/>
+      <c r="V1" s="107"/>
+      <c r="W1" s="107"/>
+      <c r="X1" s="107"/>
+      <c r="Y1" s="107"/>
+      <c r="Z1" s="107"/>
+      <c r="AA1" s="107"/>
+      <c r="AB1" s="107"/>
+      <c r="AC1" s="107"/>
+      <c r="AD1" s="108"/>
     </row>
     <row r="2" spans="1:30">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="105" t="s">
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="103"/>
-      <c r="S2" s="103"/>
-      <c r="T2" s="103"/>
-      <c r="U2" s="103"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="103"/>
-      <c r="X2" s="103"/>
-      <c r="Y2" s="103"/>
-      <c r="Z2" s="104"/>
-      <c r="AA2" s="105" t="s">
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
+      <c r="W2" s="110"/>
+      <c r="X2" s="110"/>
+      <c r="Y2" s="110"/>
+      <c r="Z2" s="111"/>
+      <c r="AA2" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="104"/>
-      <c r="AC2" s="105" t="s">
+      <c r="AB2" s="111"/>
+      <c r="AC2" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="AD2" s="106"/>
+      <c r="AD2" s="113"/>
     </row>
     <row r="3" spans="1:30" ht="14.25" thickBot="1">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="97" t="s">
+      <c r="B3" s="115"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="117" t="s">
         <v>149</v>
       </c>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95"/>
-      <c r="Q3" s="95"/>
-      <c r="R3" s="95"/>
-      <c r="S3" s="95"/>
-      <c r="T3" s="95"/>
-      <c r="U3" s="95"/>
-      <c r="V3" s="95"/>
-      <c r="W3" s="95"/>
-      <c r="X3" s="95"/>
-      <c r="Y3" s="95"/>
-      <c r="Z3" s="96"/>
-      <c r="AA3" s="97" t="s">
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
+      <c r="U3" s="115"/>
+      <c r="V3" s="115"/>
+      <c r="W3" s="115"/>
+      <c r="X3" s="115"/>
+      <c r="Y3" s="115"/>
+      <c r="Z3" s="116"/>
+      <c r="AA3" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="AB3" s="96"/>
-      <c r="AC3" s="97" t="s">
+      <c r="AB3" s="116"/>
+      <c r="AC3" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="AD3" s="98"/>
+      <c r="AD3" s="118"/>
     </row>
     <row r="4" spans="1:30">
       <c r="A4" s="28"/>
@@ -13377,946 +13437,946 @@
     </row>
     <row r="5" spans="1:30">
       <c r="A5" s="31"/>
-      <c r="B5" s="133"/>
-      <c r="C5" s="133"/>
-      <c r="D5" s="133"/>
-      <c r="E5" s="133"/>
-      <c r="F5" s="133"/>
-      <c r="G5" s="133"/>
-      <c r="H5" s="133"/>
-      <c r="I5" s="133"/>
-      <c r="J5" s="133"/>
-      <c r="K5" s="133"/>
-      <c r="L5" s="133"/>
-      <c r="M5" s="133"/>
-      <c r="N5" s="133"/>
-      <c r="O5" s="133"/>
-      <c r="P5" s="133"/>
-      <c r="Q5" s="133"/>
-      <c r="R5" s="133"/>
-      <c r="S5" s="133"/>
-      <c r="T5" s="133"/>
-      <c r="U5" s="133"/>
-      <c r="V5" s="133"/>
-      <c r="W5" s="133"/>
-      <c r="X5" s="133"/>
-      <c r="Y5" s="133"/>
-      <c r="Z5" s="133"/>
-      <c r="AA5" s="133"/>
-      <c r="AB5" s="133"/>
-      <c r="AC5" s="133"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="32"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="32"/>
+      <c r="W5" s="32"/>
+      <c r="X5" s="32"/>
+      <c r="Y5" s="32"/>
+      <c r="Z5" s="32"/>
+      <c r="AA5" s="32"/>
+      <c r="AB5" s="32"/>
+      <c r="AC5" s="32"/>
       <c r="AD5" s="33"/>
     </row>
     <row r="6" spans="1:30">
       <c r="A6" s="31"/>
-      <c r="B6" s="133"/>
-      <c r="C6" s="133"/>
-      <c r="D6" s="133"/>
-      <c r="E6" s="133"/>
-      <c r="F6" s="133"/>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="133"/>
-      <c r="L6" s="133"/>
-      <c r="M6" s="133"/>
-      <c r="N6" s="133"/>
-      <c r="O6" s="133"/>
-      <c r="P6" s="133"/>
-      <c r="Q6" s="133"/>
-      <c r="R6" s="133"/>
-      <c r="S6" s="133"/>
-      <c r="T6" s="133"/>
-      <c r="U6" s="133"/>
-      <c r="V6" s="133"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="32"/>
+      <c r="U6" s="32"/>
+      <c r="V6" s="32"/>
       <c r="W6" s="33"/>
-      <c r="X6" s="133"/>
-      <c r="Y6" s="133"/>
-      <c r="Z6" s="133"/>
-      <c r="AA6" s="133"/>
-      <c r="AB6" s="133"/>
-      <c r="AC6" s="133"/>
+      <c r="X6" s="32"/>
+      <c r="Y6" s="32"/>
+      <c r="Z6" s="32"/>
+      <c r="AA6" s="32"/>
+      <c r="AB6" s="32"/>
+      <c r="AC6" s="32"/>
       <c r="AD6" s="33"/>
     </row>
     <row r="7" spans="1:30">
       <c r="A7" s="31"/>
-      <c r="B7" s="133"/>
-      <c r="C7" s="133"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="133"/>
-      <c r="F7" s="133"/>
-      <c r="G7" s="133"/>
-      <c r="H7" s="133"/>
-      <c r="I7" s="133"/>
-      <c r="J7" s="133"/>
-      <c r="K7" s="133"/>
-      <c r="L7" s="133"/>
-      <c r="M7" s="133"/>
-      <c r="N7" s="133"/>
-      <c r="O7" s="133"/>
-      <c r="P7" s="133"/>
-      <c r="Q7" s="133"/>
-      <c r="R7" s="133"/>
-      <c r="S7" s="133"/>
-      <c r="T7" s="133"/>
-      <c r="U7" s="133"/>
-      <c r="V7" s="133"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="32"/>
       <c r="W7" s="33"/>
-      <c r="X7" s="133"/>
-      <c r="Y7" s="133"/>
-      <c r="Z7" s="133"/>
-      <c r="AA7" s="133"/>
-      <c r="AB7" s="133"/>
-      <c r="AC7" s="133"/>
+      <c r="X7" s="32"/>
+      <c r="Y7" s="32"/>
+      <c r="Z7" s="32"/>
+      <c r="AA7" s="32"/>
+      <c r="AB7" s="32"/>
+      <c r="AC7" s="32"/>
       <c r="AD7" s="33"/>
     </row>
     <row r="8" spans="1:30" ht="27.75" customHeight="1" thickBot="1">
       <c r="A8" s="31"/>
-      <c r="B8" s="133"/>
-      <c r="C8" s="133"/>
-      <c r="D8" s="133"/>
-      <c r="E8" s="133"/>
-      <c r="F8" s="133"/>
-      <c r="G8" s="133"/>
-      <c r="H8" s="133"/>
-      <c r="I8" s="133"/>
-      <c r="J8" s="133"/>
-      <c r="K8" s="133"/>
-      <c r="L8" s="133"/>
-      <c r="M8" s="133"/>
-      <c r="N8" s="133"/>
-      <c r="O8" s="133"/>
-      <c r="P8" s="133"/>
-      <c r="Q8" s="133"/>
-      <c r="R8" s="133"/>
-      <c r="S8" s="133"/>
-      <c r="T8" s="133"/>
-      <c r="U8" s="133"/>
-      <c r="V8" s="133"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="32"/>
       <c r="W8" s="33"/>
-      <c r="X8" s="133"/>
-      <c r="Y8" s="133"/>
-      <c r="Z8" s="133"/>
-      <c r="AA8" s="133"/>
-      <c r="AB8" s="133"/>
-      <c r="AC8" s="133"/>
+      <c r="X8" s="32"/>
+      <c r="Y8" s="32"/>
+      <c r="Z8" s="32"/>
+      <c r="AA8" s="32"/>
+      <c r="AB8" s="32"/>
+      <c r="AC8" s="32"/>
       <c r="AD8" s="33"/>
     </row>
     <row r="9" spans="1:30" ht="95.25" customHeight="1">
       <c r="A9" s="31"/>
-      <c r="B9" s="133"/>
-      <c r="C9" s="133"/>
-      <c r="D9" s="133"/>
-      <c r="E9" s="133"/>
-      <c r="F9" s="133"/>
-      <c r="G9" s="133"/>
-      <c r="H9" s="133"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
       <c r="I9" s="32"/>
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
-      <c r="L9" s="142" t="s">
+      <c r="L9" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="M9" s="143" t="s">
+      <c r="M9" s="83" t="s">
         <v>152</v>
       </c>
-      <c r="N9" s="143" t="s">
+      <c r="N9" s="83" t="s">
         <v>153</v>
       </c>
-      <c r="O9" s="143" t="s">
+      <c r="O9" s="83" t="s">
         <v>154</v>
       </c>
-      <c r="P9" s="143" t="s">
+      <c r="P9" s="83" t="s">
         <v>155</v>
       </c>
-      <c r="Q9" s="144" t="s">
+      <c r="Q9" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="R9" s="133"/>
-      <c r="S9" s="133"/>
-      <c r="T9" s="133"/>
-      <c r="U9" s="133"/>
-      <c r="V9" s="133"/>
+      <c r="R9" s="32"/>
+      <c r="S9" s="32"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="32"/>
+      <c r="V9" s="32"/>
       <c r="W9" s="33"/>
-      <c r="X9" s="133"/>
-      <c r="Y9" s="133"/>
-      <c r="Z9" s="133"/>
-      <c r="AA9" s="133"/>
-      <c r="AB9" s="133"/>
-      <c r="AC9" s="133"/>
+      <c r="X9" s="32"/>
+      <c r="Y9" s="32"/>
+      <c r="Z9" s="32"/>
+      <c r="AA9" s="32"/>
+      <c r="AB9" s="32"/>
+      <c r="AC9" s="32"/>
       <c r="AD9" s="33"/>
     </row>
     <row r="10" spans="1:30" ht="125.25" customHeight="1">
       <c r="A10" s="31"/>
-      <c r="B10" s="133"/>
-      <c r="C10" s="133"/>
-      <c r="D10" s="133"/>
-      <c r="E10" s="133"/>
-      <c r="F10" s="133"/>
-      <c r="G10" s="133"/>
-      <c r="H10" s="133"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
       <c r="I10" s="32"/>
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
-      <c r="L10" s="137">
+      <c r="L10" s="77">
         <v>1</v>
       </c>
-      <c r="M10" s="135" t="s">
+      <c r="M10" s="75" t="s">
         <v>156</v>
       </c>
-      <c r="N10" s="145" t="s">
+      <c r="N10" s="85" t="s">
         <v>169</v>
       </c>
-      <c r="O10" s="136" t="s">
+      <c r="O10" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="P10" s="136" t="s">
+      <c r="P10" s="76" t="s">
         <v>183</v>
       </c>
-      <c r="Q10" s="138" t="s">
+      <c r="Q10" s="78" t="s">
         <v>194</v>
       </c>
-      <c r="R10" s="133"/>
-      <c r="S10" s="133"/>
-      <c r="T10" s="133"/>
-      <c r="U10" s="133"/>
-      <c r="V10" s="133"/>
-      <c r="W10" s="133"/>
-      <c r="X10" s="133"/>
-      <c r="Y10" s="133"/>
-      <c r="Z10" s="133"/>
-      <c r="AA10" s="133"/>
-      <c r="AB10" s="133"/>
-      <c r="AC10" s="133"/>
+      <c r="R10" s="32"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="32"/>
+      <c r="U10" s="32"/>
+      <c r="V10" s="32"/>
+      <c r="W10" s="32"/>
+      <c r="X10" s="32"/>
+      <c r="Y10" s="32"/>
+      <c r="Z10" s="32"/>
+      <c r="AA10" s="32"/>
+      <c r="AB10" s="32"/>
+      <c r="AC10" s="32"/>
       <c r="AD10" s="33"/>
     </row>
     <row r="11" spans="1:30" ht="125.25" customHeight="1">
       <c r="A11" s="31"/>
-      <c r="B11" s="133"/>
-      <c r="C11" s="133"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="133"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="133"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
       <c r="I11" s="32"/>
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
-      <c r="L11" s="137">
+      <c r="L11" s="77">
         <v>2</v>
       </c>
-      <c r="M11" s="135" t="s">
+      <c r="M11" s="75" t="s">
         <v>157</v>
       </c>
-      <c r="N11" s="136" t="s">
+      <c r="N11" s="76" t="s">
         <v>171</v>
       </c>
-      <c r="O11" s="136" t="s">
+      <c r="O11" s="76" t="s">
         <v>173</v>
       </c>
-      <c r="P11" s="136" t="s">
+      <c r="P11" s="76" t="s">
         <v>184</v>
       </c>
-      <c r="Q11" s="138" t="s">
+      <c r="Q11" s="78" t="s">
         <v>195</v>
       </c>
-      <c r="R11" s="133"/>
-      <c r="S11" s="133"/>
-      <c r="T11" s="133"/>
-      <c r="U11" s="133"/>
-      <c r="V11" s="133"/>
-      <c r="W11" s="133"/>
-      <c r="X11" s="133"/>
-      <c r="Y11" s="133"/>
-      <c r="Z11" s="133"/>
-      <c r="AA11" s="133"/>
-      <c r="AB11" s="133"/>
-      <c r="AC11" s="133"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="32"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="32"/>
+      <c r="X11" s="32"/>
+      <c r="Y11" s="32"/>
+      <c r="Z11" s="32"/>
+      <c r="AA11" s="32"/>
+      <c r="AB11" s="32"/>
+      <c r="AC11" s="32"/>
       <c r="AD11" s="33"/>
     </row>
     <row r="12" spans="1:30" ht="125.25" customHeight="1">
       <c r="A12" s="31"/>
-      <c r="B12" s="133"/>
-      <c r="C12" s="133"/>
-      <c r="D12" s="133"/>
-      <c r="E12" s="133"/>
-      <c r="F12" s="133"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="133"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
       <c r="I12" s="32"/>
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
-      <c r="L12" s="137">
+      <c r="L12" s="77">
         <v>3</v>
       </c>
-      <c r="M12" s="135" t="s">
+      <c r="M12" s="75" t="s">
         <v>158</v>
       </c>
-      <c r="N12" s="136" t="s">
+      <c r="N12" s="76" t="s">
         <v>171</v>
       </c>
-      <c r="O12" s="136" t="s">
+      <c r="O12" s="76" t="s">
         <v>174</v>
       </c>
-      <c r="P12" s="136" t="s">
+      <c r="P12" s="76" t="s">
         <v>185</v>
       </c>
-      <c r="Q12" s="138" t="s">
+      <c r="Q12" s="78" t="s">
         <v>196</v>
       </c>
-      <c r="R12" s="133"/>
-      <c r="S12" s="133"/>
-      <c r="T12" s="133"/>
-      <c r="U12" s="133"/>
-      <c r="V12" s="133"/>
-      <c r="W12" s="133"/>
-      <c r="X12" s="133"/>
-      <c r="Y12" s="133"/>
-      <c r="Z12" s="133"/>
-      <c r="AA12" s="133"/>
-      <c r="AB12" s="133"/>
-      <c r="AC12" s="133"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="32"/>
+      <c r="T12" s="32"/>
+      <c r="U12" s="32"/>
+      <c r="V12" s="32"/>
+      <c r="W12" s="32"/>
+      <c r="X12" s="32"/>
+      <c r="Y12" s="32"/>
+      <c r="Z12" s="32"/>
+      <c r="AA12" s="32"/>
+      <c r="AB12" s="32"/>
+      <c r="AC12" s="32"/>
       <c r="AD12" s="33"/>
     </row>
     <row r="13" spans="1:30" ht="125.25" customHeight="1">
       <c r="A13" s="31"/>
-      <c r="B13" s="133"/>
-      <c r="C13" s="133"/>
-      <c r="D13" s="133"/>
-      <c r="E13" s="133"/>
-      <c r="F13" s="133"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="133"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
       <c r="I13" s="32"/>
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
-      <c r="L13" s="137">
+      <c r="L13" s="77">
         <v>4</v>
       </c>
-      <c r="M13" s="135" t="s">
+      <c r="M13" s="75" t="s">
         <v>159</v>
       </c>
-      <c r="N13" s="145" t="s">
+      <c r="N13" s="85" t="s">
         <v>168</v>
       </c>
-      <c r="O13" s="136" t="s">
+      <c r="O13" s="76" t="s">
         <v>175</v>
       </c>
-      <c r="P13" s="136" t="s">
+      <c r="P13" s="76" t="s">
         <v>186</v>
       </c>
-      <c r="Q13" s="138" t="s">
+      <c r="Q13" s="78" t="s">
         <v>197</v>
       </c>
-      <c r="R13" s="133"/>
-      <c r="S13" s="133"/>
-      <c r="T13" s="133"/>
-      <c r="U13" s="133"/>
-      <c r="V13" s="133"/>
-      <c r="W13" s="133"/>
-      <c r="X13" s="133"/>
-      <c r="Y13" s="133"/>
-      <c r="Z13" s="133"/>
-      <c r="AA13" s="133"/>
-      <c r="AB13" s="133"/>
-      <c r="AC13" s="133"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="32"/>
+      <c r="T13" s="32"/>
+      <c r="U13" s="32"/>
+      <c r="V13" s="32"/>
+      <c r="W13" s="32"/>
+      <c r="X13" s="32"/>
+      <c r="Y13" s="32"/>
+      <c r="Z13" s="32"/>
+      <c r="AA13" s="32"/>
+      <c r="AB13" s="32"/>
+      <c r="AC13" s="32"/>
       <c r="AD13" s="33"/>
     </row>
     <row r="14" spans="1:30" ht="125.25" customHeight="1">
       <c r="A14" s="31"/>
-      <c r="B14" s="133"/>
-      <c r="C14" s="133"/>
-      <c r="D14" s="133"/>
-      <c r="E14" s="133"/>
-      <c r="F14" s="133"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="133"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
       <c r="I14" s="32"/>
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
-      <c r="L14" s="137">
+      <c r="L14" s="77">
         <v>5</v>
       </c>
-      <c r="M14" s="135" t="s">
+      <c r="M14" s="75" t="s">
         <v>160</v>
       </c>
-      <c r="N14" s="145" t="s">
+      <c r="N14" s="85" t="s">
         <v>170</v>
       </c>
-      <c r="O14" s="136" t="s">
+      <c r="O14" s="76" t="s">
         <v>176</v>
       </c>
-      <c r="P14" s="136" t="s">
+      <c r="P14" s="76" t="s">
         <v>187</v>
       </c>
-      <c r="Q14" s="138" t="s">
+      <c r="Q14" s="78" t="s">
         <v>198</v>
       </c>
-      <c r="R14" s="133"/>
-      <c r="S14" s="133"/>
-      <c r="T14" s="133"/>
-      <c r="U14" s="133"/>
-      <c r="V14" s="133"/>
-      <c r="W14" s="133"/>
-      <c r="X14" s="133"/>
-      <c r="Y14" s="133"/>
-      <c r="Z14" s="133"/>
-      <c r="AA14" s="133"/>
-      <c r="AB14" s="133"/>
-      <c r="AC14" s="133"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="32"/>
+      <c r="T14" s="32"/>
+      <c r="U14" s="32"/>
+      <c r="V14" s="32"/>
+      <c r="W14" s="32"/>
+      <c r="X14" s="32"/>
+      <c r="Y14" s="32"/>
+      <c r="Z14" s="32"/>
+      <c r="AA14" s="32"/>
+      <c r="AB14" s="32"/>
+      <c r="AC14" s="32"/>
       <c r="AD14" s="33"/>
     </row>
     <row r="15" spans="1:30" ht="125.25" customHeight="1">
       <c r="A15" s="31"/>
-      <c r="B15" s="133"/>
-      <c r="C15" s="133"/>
-      <c r="D15" s="133"/>
-      <c r="E15" s="133"/>
-      <c r="F15" s="133"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="133"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
       <c r="I15" s="32"/>
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
-      <c r="L15" s="137">
+      <c r="L15" s="77">
         <v>6</v>
       </c>
-      <c r="M15" s="135" t="s">
+      <c r="M15" s="75" t="s">
         <v>161</v>
       </c>
-      <c r="N15" s="136" t="s">
+      <c r="N15" s="76" t="s">
         <v>171</v>
       </c>
-      <c r="O15" s="136" t="s">
+      <c r="O15" s="76" t="s">
         <v>177</v>
       </c>
-      <c r="P15" s="136" t="s">
+      <c r="P15" s="76" t="s">
         <v>188</v>
       </c>
-      <c r="Q15" s="138" t="s">
+      <c r="Q15" s="78" t="s">
         <v>199</v>
       </c>
-      <c r="R15" s="133"/>
-      <c r="S15" s="133"/>
-      <c r="T15" s="133"/>
-      <c r="U15" s="133"/>
-      <c r="V15" s="133"/>
-      <c r="W15" s="133"/>
-      <c r="X15" s="133"/>
-      <c r="Y15" s="133"/>
-      <c r="Z15" s="133"/>
-      <c r="AA15" s="133"/>
-      <c r="AB15" s="133"/>
-      <c r="AC15" s="133"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="32"/>
+      <c r="U15" s="32"/>
+      <c r="V15" s="32"/>
+      <c r="W15" s="32"/>
+      <c r="X15" s="32"/>
+      <c r="Y15" s="32"/>
+      <c r="Z15" s="32"/>
+      <c r="AA15" s="32"/>
+      <c r="AB15" s="32"/>
+      <c r="AC15" s="32"/>
       <c r="AD15" s="33"/>
     </row>
     <row r="16" spans="1:30" ht="125.25" customHeight="1">
       <c r="A16" s="31"/>
-      <c r="B16" s="133"/>
-      <c r="C16" s="133"/>
-      <c r="D16" s="133"/>
-      <c r="E16" s="133"/>
-      <c r="F16" s="133"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="133"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
       <c r="I16" s="32"/>
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
-      <c r="L16" s="137">
+      <c r="L16" s="77">
         <v>7</v>
       </c>
-      <c r="M16" s="135" t="s">
+      <c r="M16" s="75" t="s">
         <v>162</v>
       </c>
-      <c r="N16" s="136" t="s">
+      <c r="N16" s="76" t="s">
         <v>171</v>
       </c>
-      <c r="O16" s="136" t="s">
+      <c r="O16" s="76" t="s">
         <v>178</v>
       </c>
-      <c r="P16" s="136" t="s">
+      <c r="P16" s="76" t="s">
         <v>189</v>
       </c>
-      <c r="Q16" s="138" t="s">
+      <c r="Q16" s="78" t="s">
         <v>200</v>
       </c>
-      <c r="R16" s="133"/>
-      <c r="S16" s="133"/>
-      <c r="T16" s="133"/>
-      <c r="U16" s="133"/>
-      <c r="V16" s="133"/>
-      <c r="W16" s="133"/>
-      <c r="X16" s="133"/>
-      <c r="Y16" s="133"/>
-      <c r="Z16" s="133"/>
-      <c r="AA16" s="133"/>
-      <c r="AB16" s="133"/>
-      <c r="AC16" s="133"/>
+      <c r="R16" s="32"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="32"/>
+      <c r="V16" s="32"/>
+      <c r="W16" s="32"/>
+      <c r="X16" s="32"/>
+      <c r="Y16" s="32"/>
+      <c r="Z16" s="32"/>
+      <c r="AA16" s="32"/>
+      <c r="AB16" s="32"/>
+      <c r="AC16" s="32"/>
       <c r="AD16" s="33"/>
     </row>
-    <row r="17" spans="1:30" s="134" customFormat="1" ht="125.25" customHeight="1">
+    <row r="17" spans="1:30" ht="125.25" customHeight="1">
       <c r="A17" s="31"/>
-      <c r="B17" s="133"/>
-      <c r="C17" s="133"/>
-      <c r="D17" s="133"/>
-      <c r="E17" s="133"/>
-      <c r="F17" s="133"/>
-      <c r="G17" s="133"/>
-      <c r="H17" s="133"/>
-      <c r="I17" s="133"/>
-      <c r="J17" s="133"/>
-      <c r="K17" s="133"/>
-      <c r="L17" s="137">
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="77">
         <v>8</v>
       </c>
-      <c r="M17" s="135" t="s">
+      <c r="M17" s="75" t="s">
         <v>163</v>
       </c>
-      <c r="N17" s="136" t="s">
+      <c r="N17" s="76" t="s">
         <v>171</v>
       </c>
-      <c r="O17" s="136" t="s">
+      <c r="O17" s="76" t="s">
         <v>179</v>
       </c>
-      <c r="P17" s="136" t="s">
+      <c r="P17" s="76" t="s">
         <v>190</v>
       </c>
-      <c r="Q17" s="138" t="s">
+      <c r="Q17" s="78" t="s">
         <v>201</v>
       </c>
-      <c r="R17" s="133"/>
-      <c r="S17" s="133"/>
-      <c r="T17" s="133"/>
-      <c r="U17" s="133"/>
-      <c r="V17" s="133"/>
-      <c r="W17" s="133"/>
-      <c r="X17" s="133"/>
-      <c r="Y17" s="133"/>
-      <c r="Z17" s="133"/>
-      <c r="AA17" s="133"/>
-      <c r="AB17" s="133"/>
-      <c r="AC17" s="133"/>
+      <c r="R17" s="32"/>
+      <c r="S17" s="32"/>
+      <c r="T17" s="32"/>
+      <c r="U17" s="32"/>
+      <c r="V17" s="32"/>
+      <c r="W17" s="32"/>
+      <c r="X17" s="32"/>
+      <c r="Y17" s="32"/>
+      <c r="Z17" s="32"/>
+      <c r="AA17" s="32"/>
+      <c r="AB17" s="32"/>
+      <c r="AC17" s="32"/>
       <c r="AD17" s="33"/>
     </row>
     <row r="18" spans="1:30" ht="125.25" customHeight="1">
       <c r="A18" s="31"/>
-      <c r="B18" s="133"/>
-      <c r="C18" s="133"/>
-      <c r="D18" s="133"/>
-      <c r="E18" s="133"/>
-      <c r="F18" s="133"/>
-      <c r="G18" s="133"/>
-      <c r="H18" s="133"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
       <c r="I18" s="32"/>
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
-      <c r="L18" s="137">
+      <c r="L18" s="77">
         <v>9</v>
       </c>
-      <c r="M18" s="135" t="s">
+      <c r="M18" s="75" t="s">
         <v>164</v>
       </c>
-      <c r="N18" s="145" t="s">
+      <c r="N18" s="85" t="s">
         <v>167</v>
       </c>
-      <c r="O18" s="136" t="s">
+      <c r="O18" s="76" t="s">
         <v>180</v>
       </c>
-      <c r="P18" s="136" t="s">
+      <c r="P18" s="76" t="s">
         <v>191</v>
       </c>
-      <c r="Q18" s="138" t="s">
+      <c r="Q18" s="78" t="s">
         <v>202</v>
       </c>
-      <c r="R18" s="133"/>
-      <c r="S18" s="133"/>
-      <c r="T18" s="133"/>
-      <c r="U18" s="133"/>
-      <c r="V18" s="133"/>
-      <c r="W18" s="133"/>
-      <c r="X18" s="133"/>
-      <c r="Y18" s="133"/>
-      <c r="Z18" s="133"/>
-      <c r="AA18" s="133"/>
-      <c r="AB18" s="133"/>
-      <c r="AC18" s="133"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="32"/>
+      <c r="U18" s="32"/>
+      <c r="V18" s="32"/>
+      <c r="W18" s="32"/>
+      <c r="X18" s="32"/>
+      <c r="Y18" s="32"/>
+      <c r="Z18" s="32"/>
+      <c r="AA18" s="32"/>
+      <c r="AB18" s="32"/>
+      <c r="AC18" s="32"/>
       <c r="AD18" s="33"/>
     </row>
     <row r="19" spans="1:30" ht="125.25" customHeight="1">
       <c r="A19" s="31"/>
-      <c r="B19" s="133"/>
-      <c r="C19" s="133"/>
-      <c r="D19" s="133"/>
-      <c r="E19" s="133"/>
-      <c r="F19" s="133"/>
-      <c r="G19" s="133"/>
-      <c r="H19" s="133"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
       <c r="I19" s="32"/>
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
-      <c r="L19" s="137">
+      <c r="L19" s="77">
         <v>10</v>
       </c>
-      <c r="M19" s="135" t="s">
+      <c r="M19" s="75" t="s">
         <v>165</v>
       </c>
-      <c r="N19" s="136" t="s">
+      <c r="N19" s="76" t="s">
         <v>171</v>
       </c>
-      <c r="O19" s="136" t="s">
+      <c r="O19" s="76" t="s">
         <v>181</v>
       </c>
-      <c r="P19" s="136" t="s">
+      <c r="P19" s="76" t="s">
         <v>192</v>
       </c>
-      <c r="Q19" s="138" t="s">
+      <c r="Q19" s="78" t="s">
         <v>203</v>
       </c>
-      <c r="R19" s="133"/>
-      <c r="S19" s="133"/>
-      <c r="T19" s="133"/>
-      <c r="U19" s="133"/>
-      <c r="V19" s="133"/>
-      <c r="W19" s="133"/>
-      <c r="X19" s="133"/>
-      <c r="Y19" s="133"/>
-      <c r="Z19" s="133"/>
-      <c r="AA19" s="133"/>
-      <c r="AB19" s="133"/>
-      <c r="AC19" s="133"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="32"/>
+      <c r="V19" s="32"/>
+      <c r="W19" s="32"/>
+      <c r="X19" s="32"/>
+      <c r="Y19" s="32"/>
+      <c r="Z19" s="32"/>
+      <c r="AA19" s="32"/>
+      <c r="AB19" s="32"/>
+      <c r="AC19" s="32"/>
       <c r="AD19" s="33"/>
     </row>
     <row r="20" spans="1:30" ht="125.25" customHeight="1" thickBot="1">
       <c r="A20" s="31"/>
-      <c r="B20" s="133"/>
-      <c r="C20" s="133"/>
-      <c r="D20" s="133"/>
-      <c r="E20" s="133"/>
-      <c r="F20" s="133"/>
-      <c r="G20" s="133"/>
-      <c r="H20" s="133"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
       <c r="I20" s="32"/>
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
-      <c r="L20" s="139">
+      <c r="L20" s="79">
         <v>11</v>
       </c>
-      <c r="M20" s="140" t="s">
+      <c r="M20" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="N20" s="146" t="s">
+      <c r="N20" s="86" t="s">
         <v>171</v>
       </c>
-      <c r="O20" s="146" t="s">
+      <c r="O20" s="86" t="s">
         <v>182</v>
       </c>
-      <c r="P20" s="146" t="s">
+      <c r="P20" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="Q20" s="141" t="s">
+      <c r="Q20" s="81" t="s">
         <v>204</v>
       </c>
-      <c r="R20" s="133"/>
-      <c r="S20" s="133"/>
-      <c r="T20" s="133"/>
-      <c r="U20" s="133"/>
-      <c r="V20" s="133"/>
-      <c r="W20" s="133"/>
-      <c r="X20" s="133"/>
-      <c r="Y20" s="133"/>
-      <c r="Z20" s="133"/>
-      <c r="AA20" s="133"/>
-      <c r="AB20" s="133"/>
-      <c r="AC20" s="133"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="32"/>
+      <c r="W20" s="32"/>
+      <c r="X20" s="32"/>
+      <c r="Y20" s="32"/>
+      <c r="Z20" s="32"/>
+      <c r="AA20" s="32"/>
+      <c r="AB20" s="32"/>
+      <c r="AC20" s="32"/>
       <c r="AD20" s="33"/>
     </row>
     <row r="21" spans="1:30">
       <c r="A21" s="31"/>
-      <c r="B21" s="133"/>
-      <c r="C21" s="133"/>
-      <c r="D21" s="133"/>
-      <c r="E21" s="133"/>
-      <c r="F21" s="133"/>
-      <c r="G21" s="133"/>
-      <c r="H21" s="133"/>
-      <c r="I21" s="133"/>
-      <c r="J21" s="133"/>
-      <c r="K21" s="133"/>
-      <c r="L21" s="133"/>
-      <c r="M21" s="133"/>
-      <c r="N21" s="133"/>
-      <c r="O21" s="133"/>
-      <c r="P21" s="133"/>
-      <c r="Q21" s="133"/>
-      <c r="R21" s="133"/>
-      <c r="S21" s="133"/>
-      <c r="T21" s="133"/>
-      <c r="U21" s="133"/>
-      <c r="V21" s="133"/>
-      <c r="W21" s="133"/>
-      <c r="X21" s="133"/>
-      <c r="Y21" s="133"/>
-      <c r="Z21" s="133"/>
-      <c r="AA21" s="133"/>
-      <c r="AB21" s="133"/>
-      <c r="AC21" s="133"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="32"/>
+      <c r="T21" s="32"/>
+      <c r="U21" s="32"/>
+      <c r="V21" s="32"/>
+      <c r="W21" s="32"/>
+      <c r="X21" s="32"/>
+      <c r="Y21" s="32"/>
+      <c r="Z21" s="32"/>
+      <c r="AA21" s="32"/>
+      <c r="AB21" s="32"/>
+      <c r="AC21" s="32"/>
       <c r="AD21" s="33"/>
     </row>
     <row r="22" spans="1:30">
       <c r="A22" s="31"/>
-      <c r="B22" s="133"/>
-      <c r="C22" s="133"/>
-      <c r="D22" s="133"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="133"/>
-      <c r="G22" s="133"/>
-      <c r="H22" s="133"/>
-      <c r="I22" s="133"/>
-      <c r="J22" s="133"/>
-      <c r="K22" s="133"/>
-      <c r="L22" s="133"/>
-      <c r="M22" s="133"/>
-      <c r="N22" s="133"/>
-      <c r="O22" s="133"/>
-      <c r="P22" s="133"/>
-      <c r="Q22" s="133"/>
-      <c r="R22" s="133"/>
-      <c r="S22" s="133"/>
-      <c r="T22" s="133"/>
-      <c r="U22" s="133"/>
-      <c r="V22" s="133"/>
-      <c r="W22" s="133"/>
-      <c r="X22" s="133"/>
-      <c r="Y22" s="133"/>
-      <c r="Z22" s="133"/>
-      <c r="AA22" s="133"/>
-      <c r="AB22" s="133"/>
-      <c r="AC22" s="133"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="32"/>
+      <c r="V22" s="32"/>
+      <c r="W22" s="32"/>
+      <c r="X22" s="32"/>
+      <c r="Y22" s="32"/>
+      <c r="Z22" s="32"/>
+      <c r="AA22" s="32"/>
+      <c r="AB22" s="32"/>
+      <c r="AC22" s="32"/>
       <c r="AD22" s="33"/>
     </row>
     <row r="23" spans="1:30">
       <c r="A23" s="31"/>
-      <c r="B23" s="133"/>
-      <c r="C23" s="133"/>
-      <c r="D23" s="133"/>
-      <c r="E23" s="133"/>
-      <c r="F23" s="133"/>
-      <c r="G23" s="133"/>
-      <c r="H23" s="133"/>
-      <c r="I23" s="133"/>
-      <c r="J23" s="133"/>
-      <c r="K23" s="133"/>
-      <c r="L23" s="133"/>
-      <c r="M23" s="133"/>
-      <c r="N23" s="133"/>
-      <c r="O23" s="133"/>
-      <c r="P23" s="133"/>
-      <c r="Q23" s="133"/>
-      <c r="R23" s="133"/>
-      <c r="S23" s="133"/>
-      <c r="T23" s="133"/>
-      <c r="U23" s="133"/>
-      <c r="V23" s="133"/>
-      <c r="W23" s="133"/>
-      <c r="X23" s="133"/>
-      <c r="Y23" s="133"/>
-      <c r="Z23" s="133"/>
-      <c r="AA23" s="133"/>
-      <c r="AB23" s="133"/>
-      <c r="AC23" s="133"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="32"/>
+      <c r="R23" s="32"/>
+      <c r="S23" s="32"/>
+      <c r="T23" s="32"/>
+      <c r="U23" s="32"/>
+      <c r="V23" s="32"/>
+      <c r="W23" s="32"/>
+      <c r="X23" s="32"/>
+      <c r="Y23" s="32"/>
+      <c r="Z23" s="32"/>
+      <c r="AA23" s="32"/>
+      <c r="AB23" s="32"/>
+      <c r="AC23" s="32"/>
       <c r="AD23" s="33"/>
     </row>
     <row r="24" spans="1:30">
       <c r="A24" s="31"/>
-      <c r="B24" s="133"/>
-      <c r="C24" s="133"/>
-      <c r="D24" s="133"/>
-      <c r="E24" s="133"/>
-      <c r="F24" s="133"/>
-      <c r="G24" s="133"/>
-      <c r="H24" s="133"/>
-      <c r="I24" s="133"/>
-      <c r="J24" s="133"/>
-      <c r="K24" s="133"/>
-      <c r="L24" s="133"/>
-      <c r="M24" s="133"/>
-      <c r="N24" s="133"/>
-      <c r="O24" s="133"/>
-      <c r="P24" s="133"/>
-      <c r="Q24" s="133"/>
-      <c r="R24" s="133"/>
-      <c r="S24" s="133"/>
-      <c r="T24" s="133"/>
-      <c r="U24" s="133"/>
-      <c r="V24" s="133"/>
-      <c r="W24" s="133"/>
-      <c r="X24" s="133"/>
-      <c r="Y24" s="133"/>
-      <c r="Z24" s="133"/>
-      <c r="AA24" s="133"/>
-      <c r="AB24" s="133"/>
-      <c r="AC24" s="133"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="32"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="32"/>
+      <c r="U24" s="32"/>
+      <c r="V24" s="32"/>
+      <c r="W24" s="32"/>
+      <c r="X24" s="32"/>
+      <c r="Y24" s="32"/>
+      <c r="Z24" s="32"/>
+      <c r="AA24" s="32"/>
+      <c r="AB24" s="32"/>
+      <c r="AC24" s="32"/>
       <c r="AD24" s="33"/>
     </row>
     <row r="25" spans="1:30">
       <c r="A25" s="31"/>
-      <c r="B25" s="133"/>
-      <c r="C25" s="133"/>
-      <c r="D25" s="133"/>
-      <c r="E25" s="133"/>
-      <c r="F25" s="133"/>
-      <c r="G25" s="133"/>
-      <c r="H25" s="133"/>
-      <c r="I25" s="133"/>
-      <c r="J25" s="133"/>
-      <c r="K25" s="133"/>
-      <c r="L25" s="133"/>
-      <c r="M25" s="133"/>
-      <c r="N25" s="133"/>
-      <c r="O25" s="133"/>
-      <c r="P25" s="133"/>
-      <c r="Q25" s="133"/>
-      <c r="R25" s="133"/>
-      <c r="S25" s="133"/>
-      <c r="T25" s="133"/>
-      <c r="U25" s="133"/>
-      <c r="V25" s="133"/>
-      <c r="W25" s="133"/>
-      <c r="X25" s="133"/>
-      <c r="Y25" s="133"/>
-      <c r="Z25" s="133"/>
-      <c r="AA25" s="133"/>
-      <c r="AB25" s="133"/>
-      <c r="AC25" s="133"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="32"/>
+      <c r="T25" s="32"/>
+      <c r="U25" s="32"/>
+      <c r="V25" s="32"/>
+      <c r="W25" s="32"/>
+      <c r="X25" s="32"/>
+      <c r="Y25" s="32"/>
+      <c r="Z25" s="32"/>
+      <c r="AA25" s="32"/>
+      <c r="AB25" s="32"/>
+      <c r="AC25" s="32"/>
       <c r="AD25" s="33"/>
     </row>
     <row r="26" spans="1:30">
       <c r="A26" s="31"/>
-      <c r="B26" s="133"/>
-      <c r="C26" s="133"/>
-      <c r="D26" s="133"/>
-      <c r="E26" s="133"/>
-      <c r="F26" s="133"/>
-      <c r="G26" s="133"/>
-      <c r="H26" s="133"/>
-      <c r="I26" s="133"/>
-      <c r="J26" s="133"/>
-      <c r="K26" s="133"/>
-      <c r="L26" s="133"/>
-      <c r="M26" s="133"/>
-      <c r="N26" s="133"/>
-      <c r="O26" s="133"/>
-      <c r="P26" s="133"/>
-      <c r="Q26" s="133"/>
-      <c r="R26" s="133"/>
-      <c r="S26" s="133"/>
-      <c r="T26" s="133"/>
-      <c r="U26" s="133"/>
-      <c r="V26" s="133"/>
-      <c r="W26" s="133"/>
-      <c r="X26" s="133"/>
-      <c r="Y26" s="133"/>
-      <c r="Z26" s="133"/>
-      <c r="AA26" s="133"/>
-      <c r="AB26" s="133"/>
-      <c r="AC26" s="133"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="32"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="32"/>
+      <c r="U26" s="32"/>
+      <c r="V26" s="32"/>
+      <c r="W26" s="32"/>
+      <c r="X26" s="32"/>
+      <c r="Y26" s="32"/>
+      <c r="Z26" s="32"/>
+      <c r="AA26" s="32"/>
+      <c r="AB26" s="32"/>
+      <c r="AC26" s="32"/>
       <c r="AD26" s="33"/>
     </row>
     <row r="27" spans="1:30">
       <c r="A27" s="31"/>
-      <c r="B27" s="133"/>
-      <c r="C27" s="133"/>
-      <c r="D27" s="133"/>
-      <c r="E27" s="133"/>
-      <c r="F27" s="133"/>
-      <c r="G27" s="133"/>
-      <c r="H27" s="133"/>
-      <c r="I27" s="133"/>
-      <c r="J27" s="133"/>
-      <c r="K27" s="133"/>
-      <c r="L27" s="133"/>
-      <c r="M27" s="133"/>
-      <c r="N27" s="133"/>
-      <c r="O27" s="133"/>
-      <c r="P27" s="133"/>
-      <c r="Q27" s="133"/>
-      <c r="R27" s="133"/>
-      <c r="S27" s="133"/>
-      <c r="T27" s="133"/>
-      <c r="U27" s="133"/>
-      <c r="V27" s="133"/>
-      <c r="W27" s="133"/>
-      <c r="X27" s="133"/>
-      <c r="Y27" s="133"/>
-      <c r="Z27" s="133"/>
-      <c r="AA27" s="133"/>
-      <c r="AB27" s="133"/>
-      <c r="AC27" s="133"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="32"/>
+      <c r="R27" s="32"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="32"/>
+      <c r="U27" s="32"/>
+      <c r="V27" s="32"/>
+      <c r="W27" s="32"/>
+      <c r="X27" s="32"/>
+      <c r="Y27" s="32"/>
+      <c r="Z27" s="32"/>
+      <c r="AA27" s="32"/>
+      <c r="AB27" s="32"/>
+      <c r="AC27" s="32"/>
       <c r="AD27" s="33"/>
     </row>
     <row r="28" spans="1:30">
       <c r="A28" s="31"/>
-      <c r="B28" s="133"/>
-      <c r="C28" s="133"/>
-      <c r="D28" s="133"/>
-      <c r="E28" s="133"/>
-      <c r="F28" s="133"/>
-      <c r="G28" s="133"/>
-      <c r="H28" s="133"/>
-      <c r="I28" s="133"/>
-      <c r="J28" s="133"/>
-      <c r="K28" s="133"/>
-      <c r="L28" s="133"/>
-      <c r="M28" s="133"/>
-      <c r="N28" s="133"/>
-      <c r="O28" s="133"/>
-      <c r="P28" s="133"/>
-      <c r="Q28" s="133"/>
-      <c r="R28" s="133"/>
-      <c r="S28" s="133"/>
-      <c r="T28" s="133"/>
-      <c r="U28" s="133"/>
-      <c r="V28" s="133"/>
-      <c r="W28" s="133"/>
-      <c r="X28" s="133"/>
-      <c r="Y28" s="133"/>
-      <c r="Z28" s="133"/>
-      <c r="AA28" s="133"/>
-      <c r="AB28" s="133"/>
-      <c r="AC28" s="133"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="32"/>
+      <c r="R28" s="32"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="32"/>
+      <c r="U28" s="32"/>
+      <c r="V28" s="32"/>
+      <c r="W28" s="32"/>
+      <c r="X28" s="32"/>
+      <c r="Y28" s="32"/>
+      <c r="Z28" s="32"/>
+      <c r="AA28" s="32"/>
+      <c r="AB28" s="32"/>
+      <c r="AC28" s="32"/>
       <c r="AD28" s="33"/>
     </row>
     <row r="29" spans="1:30">
       <c r="A29" s="31"/>
-      <c r="B29" s="133"/>
-      <c r="C29" s="133"/>
-      <c r="D29" s="133"/>
-      <c r="E29" s="133"/>
-      <c r="F29" s="133"/>
-      <c r="G29" s="133"/>
-      <c r="H29" s="133"/>
-      <c r="I29" s="133"/>
-      <c r="J29" s="133"/>
-      <c r="K29" s="133"/>
-      <c r="L29" s="133"/>
-      <c r="M29" s="133"/>
-      <c r="N29" s="133"/>
-      <c r="O29" s="133"/>
-      <c r="P29" s="133"/>
-      <c r="Q29" s="133"/>
-      <c r="R29" s="133"/>
-      <c r="S29" s="133"/>
-      <c r="T29" s="133"/>
-      <c r="U29" s="133"/>
-      <c r="V29" s="133"/>
-      <c r="W29" s="133"/>
-      <c r="X29" s="133"/>
-      <c r="Y29" s="133"/>
-      <c r="Z29" s="133"/>
-      <c r="AA29" s="133"/>
-      <c r="AB29" s="133"/>
-      <c r="AC29" s="133"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="32"/>
+      <c r="R29" s="32"/>
+      <c r="S29" s="32"/>
+      <c r="T29" s="32"/>
+      <c r="U29" s="32"/>
+      <c r="V29" s="32"/>
+      <c r="W29" s="32"/>
+      <c r="X29" s="32"/>
+      <c r="Y29" s="32"/>
+      <c r="Z29" s="32"/>
+      <c r="AA29" s="32"/>
+      <c r="AB29" s="32"/>
+      <c r="AC29" s="32"/>
       <c r="AD29" s="33"/>
     </row>
     <row r="30" spans="1:30" ht="14.25" thickBot="1">
@@ -14353,15 +14413,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:Z3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:Z2"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:Z3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14388,127 +14448,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="100"/>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
-      <c r="W1" s="100"/>
-      <c r="X1" s="100"/>
-      <c r="Y1" s="100"/>
-      <c r="Z1" s="100"/>
-      <c r="AA1" s="100"/>
-      <c r="AB1" s="100"/>
-      <c r="AC1" s="100"/>
-      <c r="AD1" s="100"/>
-      <c r="AE1" s="100"/>
-      <c r="AF1" s="100"/>
-      <c r="AG1" s="101"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="107"/>
+      <c r="T1" s="107"/>
+      <c r="U1" s="107"/>
+      <c r="V1" s="107"/>
+      <c r="W1" s="107"/>
+      <c r="X1" s="107"/>
+      <c r="Y1" s="107"/>
+      <c r="Z1" s="107"/>
+      <c r="AA1" s="107"/>
+      <c r="AB1" s="107"/>
+      <c r="AC1" s="107"/>
+      <c r="AD1" s="107"/>
+      <c r="AE1" s="107"/>
+      <c r="AF1" s="107"/>
+      <c r="AG1" s="108"/>
     </row>
     <row r="2" spans="1:33">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="105" t="s">
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="103"/>
-      <c r="S2" s="103"/>
-      <c r="T2" s="103"/>
-      <c r="U2" s="103"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="103"/>
-      <c r="X2" s="103"/>
-      <c r="Y2" s="103"/>
-      <c r="Z2" s="103"/>
-      <c r="AA2" s="103"/>
-      <c r="AB2" s="103"/>
-      <c r="AC2" s="104"/>
-      <c r="AD2" s="105" t="s">
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
+      <c r="W2" s="110"/>
+      <c r="X2" s="110"/>
+      <c r="Y2" s="110"/>
+      <c r="Z2" s="110"/>
+      <c r="AA2" s="110"/>
+      <c r="AB2" s="110"/>
+      <c r="AC2" s="111"/>
+      <c r="AD2" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="AE2" s="104"/>
-      <c r="AF2" s="105" t="s">
+      <c r="AE2" s="111"/>
+      <c r="AF2" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="AG2" s="106"/>
+      <c r="AG2" s="113"/>
     </row>
     <row r="3" spans="1:33" ht="14.25" thickBot="1">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="97" t="s">
+      <c r="B3" s="115"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95"/>
-      <c r="Q3" s="95"/>
-      <c r="R3" s="95"/>
-      <c r="S3" s="95"/>
-      <c r="T3" s="95"/>
-      <c r="U3" s="95"/>
-      <c r="V3" s="95"/>
-      <c r="W3" s="95"/>
-      <c r="X3" s="95"/>
-      <c r="Y3" s="95"/>
-      <c r="Z3" s="95"/>
-      <c r="AA3" s="95"/>
-      <c r="AB3" s="95"/>
-      <c r="AC3" s="96"/>
-      <c r="AD3" s="97" t="s">
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
+      <c r="U3" s="115"/>
+      <c r="V3" s="115"/>
+      <c r="W3" s="115"/>
+      <c r="X3" s="115"/>
+      <c r="Y3" s="115"/>
+      <c r="Z3" s="115"/>
+      <c r="AA3" s="115"/>
+      <c r="AB3" s="115"/>
+      <c r="AC3" s="116"/>
+      <c r="AD3" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="AE3" s="96"/>
-      <c r="AF3" s="97" t="s">
+      <c r="AE3" s="116"/>
+      <c r="AF3" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="AG3" s="98"/>
+      <c r="AG3" s="118"/>
     </row>
     <row r="4" spans="1:33">
       <c r="A4" s="28"/>
@@ -14625,19 +14685,19 @@
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
       <c r="I7" s="37"/>
-      <c r="J7" s="107" t="s">
+      <c r="J7" s="119" t="s">
         <v>49</v>
       </c>
-      <c r="K7" s="108"/>
-      <c r="L7" s="108"/>
-      <c r="M7" s="108"/>
-      <c r="N7" s="108"/>
-      <c r="O7" s="108"/>
-      <c r="P7" s="108"/>
-      <c r="Q7" s="108"/>
-      <c r="R7" s="108"/>
-      <c r="S7" s="108"/>
-      <c r="T7" s="109"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="120"/>
+      <c r="M7" s="120"/>
+      <c r="N7" s="120"/>
+      <c r="O7" s="120"/>
+      <c r="P7" s="120"/>
+      <c r="Q7" s="120"/>
+      <c r="R7" s="120"/>
+      <c r="S7" s="120"/>
+      <c r="T7" s="121"/>
       <c r="U7" s="37"/>
       <c r="V7" s="32"/>
       <c r="W7" s="32"/>
@@ -14662,17 +14722,17 @@
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
       <c r="I8" s="37"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="111"/>
-      <c r="L8" s="111"/>
-      <c r="M8" s="111"/>
-      <c r="N8" s="111"/>
-      <c r="O8" s="111"/>
-      <c r="P8" s="111"/>
-      <c r="Q8" s="111"/>
-      <c r="R8" s="111"/>
-      <c r="S8" s="111"/>
-      <c r="T8" s="112"/>
+      <c r="J8" s="122"/>
+      <c r="K8" s="123"/>
+      <c r="L8" s="123"/>
+      <c r="M8" s="123"/>
+      <c r="N8" s="123"/>
+      <c r="O8" s="123"/>
+      <c r="P8" s="123"/>
+      <c r="Q8" s="123"/>
+      <c r="R8" s="123"/>
+      <c r="S8" s="123"/>
+      <c r="T8" s="124"/>
       <c r="U8" s="37"/>
       <c r="V8" s="32"/>
       <c r="W8" s="32"/>
@@ -15331,10 +15391,10 @@
         <v>32</v>
       </c>
       <c r="N26" s="37"/>
-      <c r="O26" s="119">
+      <c r="O26" s="131">
         <v>1234567</v>
       </c>
-      <c r="P26" s="120"/>
+      <c r="P26" s="132"/>
       <c r="Q26" s="37"/>
       <c r="R26" s="37"/>
       <c r="S26" s="37"/>
@@ -15405,10 +15465,10 @@
         <v>31</v>
       </c>
       <c r="N28" s="37"/>
-      <c r="O28" s="119" t="s">
+      <c r="O28" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="P28" s="120"/>
+      <c r="P28" s="132"/>
       <c r="Q28" s="37"/>
       <c r="R28" s="37"/>
       <c r="S28" s="37"/>
@@ -15733,11 +15793,11 @@
       <c r="K37" s="37"/>
       <c r="L37" s="37"/>
       <c r="M37" s="37"/>
-      <c r="N37" s="113" t="s">
+      <c r="N37" s="125" t="s">
         <v>23</v>
       </c>
-      <c r="O37" s="114"/>
-      <c r="P37" s="115"/>
+      <c r="O37" s="126"/>
+      <c r="P37" s="127"/>
       <c r="Q37" s="37"/>
       <c r="R37" s="37"/>
       <c r="S37" s="37"/>
@@ -15770,9 +15830,9 @@
       <c r="K38" s="37"/>
       <c r="L38" s="37"/>
       <c r="M38" s="37"/>
-      <c r="N38" s="116"/>
-      <c r="O38" s="117"/>
-      <c r="P38" s="118"/>
+      <c r="N38" s="128"/>
+      <c r="O38" s="129"/>
+      <c r="P38" s="130"/>
       <c r="Q38" s="37"/>
       <c r="R38" s="37"/>
       <c r="S38" s="37"/>
@@ -15836,19 +15896,19 @@
       <c r="G40" s="32"/>
       <c r="H40" s="32"/>
       <c r="I40" s="37"/>
-      <c r="J40" s="107" t="s">
+      <c r="J40" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="K40" s="108"/>
-      <c r="L40" s="108"/>
-      <c r="M40" s="108"/>
-      <c r="N40" s="108"/>
-      <c r="O40" s="108"/>
-      <c r="P40" s="108"/>
-      <c r="Q40" s="108"/>
-      <c r="R40" s="108"/>
-      <c r="S40" s="108"/>
-      <c r="T40" s="109"/>
+      <c r="K40" s="120"/>
+      <c r="L40" s="120"/>
+      <c r="M40" s="120"/>
+      <c r="N40" s="120"/>
+      <c r="O40" s="120"/>
+      <c r="P40" s="120"/>
+      <c r="Q40" s="120"/>
+      <c r="R40" s="120"/>
+      <c r="S40" s="120"/>
+      <c r="T40" s="121"/>
       <c r="U40" s="37"/>
       <c r="V40" s="32"/>
       <c r="W40" s="32"/>
@@ -15873,17 +15933,17 @@
       <c r="G41" s="32"/>
       <c r="H41" s="32"/>
       <c r="I41" s="37"/>
-      <c r="J41" s="110"/>
-      <c r="K41" s="111"/>
-      <c r="L41" s="111"/>
-      <c r="M41" s="111"/>
-      <c r="N41" s="111"/>
-      <c r="O41" s="111"/>
-      <c r="P41" s="111"/>
-      <c r="Q41" s="111"/>
-      <c r="R41" s="111"/>
-      <c r="S41" s="111"/>
-      <c r="T41" s="112"/>
+      <c r="J41" s="122"/>
+      <c r="K41" s="123"/>
+      <c r="L41" s="123"/>
+      <c r="M41" s="123"/>
+      <c r="N41" s="123"/>
+      <c r="O41" s="123"/>
+      <c r="P41" s="123"/>
+      <c r="Q41" s="123"/>
+      <c r="R41" s="123"/>
+      <c r="S41" s="123"/>
+      <c r="T41" s="124"/>
       <c r="U41" s="37"/>
       <c r="V41" s="32"/>
       <c r="W41" s="32"/>
@@ -16320,11 +16380,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="J7:T8"/>
-    <mergeCell ref="N37:P38"/>
-    <mergeCell ref="J40:T41"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="O28:P28"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
@@ -16334,6 +16389,11 @@
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="J7:T8"/>
+    <mergeCell ref="N37:P38"/>
+    <mergeCell ref="J40:T41"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="O28:P28"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16360,127 +16420,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="100"/>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
-      <c r="W1" s="100"/>
-      <c r="X1" s="100"/>
-      <c r="Y1" s="100"/>
-      <c r="Z1" s="100"/>
-      <c r="AA1" s="100"/>
-      <c r="AB1" s="100"/>
-      <c r="AC1" s="100"/>
-      <c r="AD1" s="100"/>
-      <c r="AE1" s="100"/>
-      <c r="AF1" s="100"/>
-      <c r="AG1" s="101"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="107"/>
+      <c r="T1" s="107"/>
+      <c r="U1" s="107"/>
+      <c r="V1" s="107"/>
+      <c r="W1" s="107"/>
+      <c r="X1" s="107"/>
+      <c r="Y1" s="107"/>
+      <c r="Z1" s="107"/>
+      <c r="AA1" s="107"/>
+      <c r="AB1" s="107"/>
+      <c r="AC1" s="107"/>
+      <c r="AD1" s="107"/>
+      <c r="AE1" s="107"/>
+      <c r="AF1" s="107"/>
+      <c r="AG1" s="108"/>
     </row>
     <row r="2" spans="1:33">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="105" t="s">
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="103"/>
-      <c r="S2" s="103"/>
-      <c r="T2" s="103"/>
-      <c r="U2" s="103"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="103"/>
-      <c r="X2" s="103"/>
-      <c r="Y2" s="103"/>
-      <c r="Z2" s="103"/>
-      <c r="AA2" s="103"/>
-      <c r="AB2" s="103"/>
-      <c r="AC2" s="104"/>
-      <c r="AD2" s="105" t="s">
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
+      <c r="W2" s="110"/>
+      <c r="X2" s="110"/>
+      <c r="Y2" s="110"/>
+      <c r="Z2" s="110"/>
+      <c r="AA2" s="110"/>
+      <c r="AB2" s="110"/>
+      <c r="AC2" s="111"/>
+      <c r="AD2" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="AE2" s="104"/>
-      <c r="AF2" s="105" t="s">
+      <c r="AE2" s="111"/>
+      <c r="AF2" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="AG2" s="106"/>
+      <c r="AG2" s="113"/>
     </row>
     <row r="3" spans="1:33" ht="14.25" thickBot="1">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="97" t="s">
+      <c r="B3" s="115"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="117" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95"/>
-      <c r="Q3" s="95"/>
-      <c r="R3" s="95"/>
-      <c r="S3" s="95"/>
-      <c r="T3" s="95"/>
-      <c r="U3" s="95"/>
-      <c r="V3" s="95"/>
-      <c r="W3" s="95"/>
-      <c r="X3" s="95"/>
-      <c r="Y3" s="95"/>
-      <c r="Z3" s="95"/>
-      <c r="AA3" s="95"/>
-      <c r="AB3" s="95"/>
-      <c r="AC3" s="96"/>
-      <c r="AD3" s="97" t="s">
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
+      <c r="U3" s="115"/>
+      <c r="V3" s="115"/>
+      <c r="W3" s="115"/>
+      <c r="X3" s="115"/>
+      <c r="Y3" s="115"/>
+      <c r="Z3" s="115"/>
+      <c r="AA3" s="115"/>
+      <c r="AB3" s="115"/>
+      <c r="AC3" s="116"/>
+      <c r="AD3" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="AE3" s="96"/>
-      <c r="AF3" s="97" t="s">
+      <c r="AE3" s="116"/>
+      <c r="AF3" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="AG3" s="98"/>
+      <c r="AG3" s="118"/>
     </row>
     <row r="4" spans="1:33">
       <c r="A4" s="28"/>
@@ -16667,19 +16727,19 @@
       <c r="G9" s="32"/>
       <c r="H9" s="32"/>
       <c r="I9" s="37"/>
-      <c r="J9" s="107" t="s">
+      <c r="J9" s="119" t="s">
         <v>49</v>
       </c>
-      <c r="K9" s="108"/>
-      <c r="L9" s="108"/>
-      <c r="M9" s="108"/>
-      <c r="N9" s="108"/>
-      <c r="O9" s="108"/>
-      <c r="P9" s="108"/>
-      <c r="Q9" s="108"/>
-      <c r="R9" s="108"/>
-      <c r="S9" s="108"/>
-      <c r="T9" s="109"/>
+      <c r="K9" s="120"/>
+      <c r="L9" s="120"/>
+      <c r="M9" s="120"/>
+      <c r="N9" s="120"/>
+      <c r="O9" s="120"/>
+      <c r="P9" s="120"/>
+      <c r="Q9" s="120"/>
+      <c r="R9" s="120"/>
+      <c r="S9" s="120"/>
+      <c r="T9" s="121"/>
       <c r="U9" s="37"/>
       <c r="V9" s="37"/>
       <c r="W9" s="32"/>
@@ -16704,17 +16764,17 @@
       <c r="G10" s="32"/>
       <c r="H10" s="32"/>
       <c r="I10" s="37"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="111"/>
-      <c r="L10" s="111"/>
-      <c r="M10" s="111"/>
-      <c r="N10" s="111"/>
-      <c r="O10" s="111"/>
-      <c r="P10" s="111"/>
-      <c r="Q10" s="111"/>
-      <c r="R10" s="111"/>
-      <c r="S10" s="111"/>
-      <c r="T10" s="112"/>
+      <c r="J10" s="122"/>
+      <c r="K10" s="123"/>
+      <c r="L10" s="123"/>
+      <c r="M10" s="123"/>
+      <c r="N10" s="123"/>
+      <c r="O10" s="123"/>
+      <c r="P10" s="123"/>
+      <c r="Q10" s="123"/>
+      <c r="R10" s="123"/>
+      <c r="S10" s="123"/>
+      <c r="T10" s="124"/>
       <c r="U10" s="37"/>
       <c r="V10" s="37"/>
       <c r="W10" s="32"/>
@@ -17771,17 +17831,17 @@
       <c r="I39" s="37"/>
       <c r="J39" s="38"/>
       <c r="K39" s="37"/>
-      <c r="L39" s="113" t="s">
+      <c r="L39" s="125" t="s">
         <v>51</v>
       </c>
-      <c r="M39" s="114"/>
-      <c r="N39" s="115"/>
+      <c r="M39" s="126"/>
+      <c r="N39" s="127"/>
       <c r="O39" s="37"/>
-      <c r="P39" s="113" t="s">
+      <c r="P39" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="Q39" s="114"/>
-      <c r="R39" s="115"/>
+      <c r="Q39" s="126"/>
+      <c r="R39" s="127"/>
       <c r="S39" s="37"/>
       <c r="T39" s="42"/>
       <c r="U39" s="37"/>
@@ -17810,13 +17870,13 @@
       <c r="I40" s="37"/>
       <c r="J40" s="38"/>
       <c r="K40" s="37"/>
-      <c r="L40" s="116"/>
-      <c r="M40" s="117"/>
-      <c r="N40" s="118"/>
+      <c r="L40" s="128"/>
+      <c r="M40" s="129"/>
+      <c r="N40" s="130"/>
       <c r="O40" s="37"/>
-      <c r="P40" s="116"/>
-      <c r="Q40" s="117"/>
-      <c r="R40" s="118"/>
+      <c r="P40" s="128"/>
+      <c r="Q40" s="129"/>
+      <c r="R40" s="130"/>
       <c r="S40" s="37"/>
       <c r="T40" s="42"/>
       <c r="U40" s="37"/>
@@ -17878,19 +17938,19 @@
       <c r="G42" s="32"/>
       <c r="H42" s="32"/>
       <c r="I42" s="37"/>
-      <c r="J42" s="107" t="s">
+      <c r="J42" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="K42" s="108"/>
-      <c r="L42" s="108"/>
-      <c r="M42" s="108"/>
-      <c r="N42" s="108"/>
-      <c r="O42" s="108"/>
-      <c r="P42" s="108"/>
-      <c r="Q42" s="108"/>
-      <c r="R42" s="108"/>
-      <c r="S42" s="108"/>
-      <c r="T42" s="109"/>
+      <c r="K42" s="120"/>
+      <c r="L42" s="120"/>
+      <c r="M42" s="120"/>
+      <c r="N42" s="120"/>
+      <c r="O42" s="120"/>
+      <c r="P42" s="120"/>
+      <c r="Q42" s="120"/>
+      <c r="R42" s="120"/>
+      <c r="S42" s="120"/>
+      <c r="T42" s="121"/>
       <c r="U42" s="37"/>
       <c r="V42" s="37"/>
       <c r="W42" s="32"/>
@@ -17915,17 +17975,17 @@
       <c r="G43" s="32"/>
       <c r="H43" s="32"/>
       <c r="I43" s="37"/>
-      <c r="J43" s="110"/>
-      <c r="K43" s="111"/>
-      <c r="L43" s="111"/>
-      <c r="M43" s="111"/>
-      <c r="N43" s="111"/>
-      <c r="O43" s="111"/>
-      <c r="P43" s="111"/>
-      <c r="Q43" s="111"/>
-      <c r="R43" s="111"/>
-      <c r="S43" s="111"/>
-      <c r="T43" s="112"/>
+      <c r="J43" s="122"/>
+      <c r="K43" s="123"/>
+      <c r="L43" s="123"/>
+      <c r="M43" s="123"/>
+      <c r="N43" s="123"/>
+      <c r="O43" s="123"/>
+      <c r="P43" s="123"/>
+      <c r="Q43" s="123"/>
+      <c r="R43" s="123"/>
+      <c r="S43" s="123"/>
+      <c r="T43" s="124"/>
       <c r="U43" s="37"/>
       <c r="V43" s="37"/>
       <c r="W43" s="32"/>
@@ -18331,127 +18391,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="100"/>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
-      <c r="W1" s="100"/>
-      <c r="X1" s="100"/>
-      <c r="Y1" s="100"/>
-      <c r="Z1" s="100"/>
-      <c r="AA1" s="100"/>
-      <c r="AB1" s="100"/>
-      <c r="AC1" s="100"/>
-      <c r="AD1" s="100"/>
-      <c r="AE1" s="100"/>
-      <c r="AF1" s="100"/>
-      <c r="AG1" s="101"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="107"/>
+      <c r="T1" s="107"/>
+      <c r="U1" s="107"/>
+      <c r="V1" s="107"/>
+      <c r="W1" s="107"/>
+      <c r="X1" s="107"/>
+      <c r="Y1" s="107"/>
+      <c r="Z1" s="107"/>
+      <c r="AA1" s="107"/>
+      <c r="AB1" s="107"/>
+      <c r="AC1" s="107"/>
+      <c r="AD1" s="107"/>
+      <c r="AE1" s="107"/>
+      <c r="AF1" s="107"/>
+      <c r="AG1" s="108"/>
     </row>
     <row r="2" spans="1:33">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="105" t="s">
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="103"/>
-      <c r="S2" s="103"/>
-      <c r="T2" s="103"/>
-      <c r="U2" s="103"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="103"/>
-      <c r="X2" s="103"/>
-      <c r="Y2" s="103"/>
-      <c r="Z2" s="103"/>
-      <c r="AA2" s="103"/>
-      <c r="AB2" s="103"/>
-      <c r="AC2" s="104"/>
-      <c r="AD2" s="105" t="s">
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
+      <c r="W2" s="110"/>
+      <c r="X2" s="110"/>
+      <c r="Y2" s="110"/>
+      <c r="Z2" s="110"/>
+      <c r="AA2" s="110"/>
+      <c r="AB2" s="110"/>
+      <c r="AC2" s="111"/>
+      <c r="AD2" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="AE2" s="104"/>
-      <c r="AF2" s="105" t="s">
+      <c r="AE2" s="111"/>
+      <c r="AF2" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="AG2" s="106"/>
+      <c r="AG2" s="113"/>
     </row>
     <row r="3" spans="1:33" ht="14.25" thickBot="1">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="97" t="s">
+      <c r="B3" s="115"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="117" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95"/>
-      <c r="Q3" s="95"/>
-      <c r="R3" s="95"/>
-      <c r="S3" s="95"/>
-      <c r="T3" s="95"/>
-      <c r="U3" s="95"/>
-      <c r="V3" s="95"/>
-      <c r="W3" s="95"/>
-      <c r="X3" s="95"/>
-      <c r="Y3" s="95"/>
-      <c r="Z3" s="95"/>
-      <c r="AA3" s="95"/>
-      <c r="AB3" s="95"/>
-      <c r="AC3" s="96"/>
-      <c r="AD3" s="97" t="s">
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
+      <c r="U3" s="115"/>
+      <c r="V3" s="115"/>
+      <c r="W3" s="115"/>
+      <c r="X3" s="115"/>
+      <c r="Y3" s="115"/>
+      <c r="Z3" s="115"/>
+      <c r="AA3" s="115"/>
+      <c r="AB3" s="115"/>
+      <c r="AC3" s="116"/>
+      <c r="AD3" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="AE3" s="96"/>
-      <c r="AF3" s="97" t="s">
+      <c r="AE3" s="116"/>
+      <c r="AF3" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="AG3" s="98"/>
+      <c r="AG3" s="118"/>
     </row>
     <row r="4" spans="1:33">
       <c r="A4" s="28"/>
@@ -18603,19 +18663,19 @@
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
       <c r="I8" s="37"/>
-      <c r="J8" s="107" t="s">
+      <c r="J8" s="119" t="s">
         <v>49</v>
       </c>
-      <c r="K8" s="108"/>
-      <c r="L8" s="108"/>
-      <c r="M8" s="108"/>
-      <c r="N8" s="108"/>
-      <c r="O8" s="108"/>
-      <c r="P8" s="108"/>
-      <c r="Q8" s="108"/>
-      <c r="R8" s="108"/>
-      <c r="S8" s="108"/>
-      <c r="T8" s="109"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="120"/>
+      <c r="M8" s="120"/>
+      <c r="N8" s="120"/>
+      <c r="O8" s="120"/>
+      <c r="P8" s="120"/>
+      <c r="Q8" s="120"/>
+      <c r="R8" s="120"/>
+      <c r="S8" s="120"/>
+      <c r="T8" s="121"/>
       <c r="U8" s="37"/>
       <c r="V8" s="37"/>
       <c r="W8" s="32"/>
@@ -18640,17 +18700,17 @@
       <c r="G9" s="32"/>
       <c r="H9" s="32"/>
       <c r="I9" s="37"/>
-      <c r="J9" s="110"/>
-      <c r="K9" s="111"/>
-      <c r="L9" s="111"/>
-      <c r="M9" s="111"/>
-      <c r="N9" s="111"/>
-      <c r="O9" s="111"/>
-      <c r="P9" s="111"/>
-      <c r="Q9" s="111"/>
-      <c r="R9" s="111"/>
-      <c r="S9" s="111"/>
-      <c r="T9" s="112"/>
+      <c r="J9" s="122"/>
+      <c r="K9" s="123"/>
+      <c r="L9" s="123"/>
+      <c r="M9" s="123"/>
+      <c r="N9" s="123"/>
+      <c r="O9" s="123"/>
+      <c r="P9" s="123"/>
+      <c r="Q9" s="123"/>
+      <c r="R9" s="123"/>
+      <c r="S9" s="123"/>
+      <c r="T9" s="124"/>
       <c r="U9" s="37"/>
       <c r="V9" s="37"/>
       <c r="W9" s="32"/>
@@ -19064,15 +19124,15 @@
       <c r="I21" s="37"/>
       <c r="J21" s="38"/>
       <c r="K21" s="37"/>
-      <c r="L21" s="121" t="s">
+      <c r="L21" s="133" t="s">
         <v>56</v>
       </c>
-      <c r="M21" s="121"/>
-      <c r="N21" s="121"/>
-      <c r="O21" s="121"/>
-      <c r="P21" s="121"/>
-      <c r="Q21" s="121"/>
-      <c r="R21" s="121"/>
+      <c r="M21" s="133"/>
+      <c r="N21" s="133"/>
+      <c r="O21" s="133"/>
+      <c r="P21" s="133"/>
+      <c r="Q21" s="133"/>
+      <c r="R21" s="133"/>
       <c r="S21" s="37"/>
       <c r="T21" s="42"/>
       <c r="U21" s="37"/>
@@ -19593,11 +19653,11 @@
       <c r="K36" s="37"/>
       <c r="L36" s="37"/>
       <c r="M36" s="37"/>
-      <c r="N36" s="113" t="s">
+      <c r="N36" s="125" t="s">
         <v>55</v>
       </c>
-      <c r="O36" s="114"/>
-      <c r="P36" s="115"/>
+      <c r="O36" s="126"/>
+      <c r="P36" s="127"/>
       <c r="Q36" s="37"/>
       <c r="R36" s="37"/>
       <c r="S36" s="37"/>
@@ -19630,9 +19690,9 @@
       <c r="K37" s="37"/>
       <c r="L37" s="37"/>
       <c r="M37" s="37"/>
-      <c r="N37" s="116"/>
-      <c r="O37" s="117"/>
-      <c r="P37" s="118"/>
+      <c r="N37" s="128"/>
+      <c r="O37" s="129"/>
+      <c r="P37" s="130"/>
       <c r="Q37" s="37"/>
       <c r="R37" s="37"/>
       <c r="S37" s="37"/>
@@ -19696,19 +19756,19 @@
       <c r="G39" s="32"/>
       <c r="H39" s="32"/>
       <c r="I39" s="37"/>
-      <c r="J39" s="107" t="s">
+      <c r="J39" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="K39" s="108"/>
-      <c r="L39" s="108"/>
-      <c r="M39" s="108"/>
-      <c r="N39" s="108"/>
-      <c r="O39" s="108"/>
-      <c r="P39" s="108"/>
-      <c r="Q39" s="108"/>
-      <c r="R39" s="108"/>
-      <c r="S39" s="108"/>
-      <c r="T39" s="109"/>
+      <c r="K39" s="120"/>
+      <c r="L39" s="120"/>
+      <c r="M39" s="120"/>
+      <c r="N39" s="120"/>
+      <c r="O39" s="120"/>
+      <c r="P39" s="120"/>
+      <c r="Q39" s="120"/>
+      <c r="R39" s="120"/>
+      <c r="S39" s="120"/>
+      <c r="T39" s="121"/>
       <c r="U39" s="37"/>
       <c r="V39" s="37"/>
       <c r="W39" s="32"/>
@@ -19733,17 +19793,17 @@
       <c r="G40" s="32"/>
       <c r="H40" s="32"/>
       <c r="I40" s="37"/>
-      <c r="J40" s="110"/>
-      <c r="K40" s="111"/>
-      <c r="L40" s="111"/>
-      <c r="M40" s="111"/>
-      <c r="N40" s="111"/>
-      <c r="O40" s="111"/>
-      <c r="P40" s="111"/>
-      <c r="Q40" s="111"/>
-      <c r="R40" s="111"/>
-      <c r="S40" s="111"/>
-      <c r="T40" s="112"/>
+      <c r="J40" s="122"/>
+      <c r="K40" s="123"/>
+      <c r="L40" s="123"/>
+      <c r="M40" s="123"/>
+      <c r="N40" s="123"/>
+      <c r="O40" s="123"/>
+      <c r="P40" s="123"/>
+      <c r="Q40" s="123"/>
+      <c r="R40" s="123"/>
+      <c r="S40" s="123"/>
+      <c r="T40" s="124"/>
       <c r="U40" s="37"/>
       <c r="V40" s="37"/>
       <c r="W40" s="32"/>
@@ -20253,127 +20313,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="100"/>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
-      <c r="W1" s="100"/>
-      <c r="X1" s="100"/>
-      <c r="Y1" s="100"/>
-      <c r="Z1" s="100"/>
-      <c r="AA1" s="100"/>
-      <c r="AB1" s="100"/>
-      <c r="AC1" s="100"/>
-      <c r="AD1" s="100"/>
-      <c r="AE1" s="100"/>
-      <c r="AF1" s="100"/>
-      <c r="AG1" s="101"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="107"/>
+      <c r="T1" s="107"/>
+      <c r="U1" s="107"/>
+      <c r="V1" s="107"/>
+      <c r="W1" s="107"/>
+      <c r="X1" s="107"/>
+      <c r="Y1" s="107"/>
+      <c r="Z1" s="107"/>
+      <c r="AA1" s="107"/>
+      <c r="AB1" s="107"/>
+      <c r="AC1" s="107"/>
+      <c r="AD1" s="107"/>
+      <c r="AE1" s="107"/>
+      <c r="AF1" s="107"/>
+      <c r="AG1" s="108"/>
     </row>
     <row r="2" spans="1:33">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="105" t="s">
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="103"/>
-      <c r="S2" s="103"/>
-      <c r="T2" s="103"/>
-      <c r="U2" s="103"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="103"/>
-      <c r="X2" s="103"/>
-      <c r="Y2" s="103"/>
-      <c r="Z2" s="103"/>
-      <c r="AA2" s="103"/>
-      <c r="AB2" s="103"/>
-      <c r="AC2" s="104"/>
-      <c r="AD2" s="105" t="s">
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
+      <c r="W2" s="110"/>
+      <c r="X2" s="110"/>
+      <c r="Y2" s="110"/>
+      <c r="Z2" s="110"/>
+      <c r="AA2" s="110"/>
+      <c r="AB2" s="110"/>
+      <c r="AC2" s="111"/>
+      <c r="AD2" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="AE2" s="104"/>
-      <c r="AF2" s="105" t="s">
+      <c r="AE2" s="111"/>
+      <c r="AF2" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="AG2" s="106"/>
+      <c r="AG2" s="113"/>
     </row>
     <row r="3" spans="1:33" ht="14.25" thickBot="1">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="97" t="s">
+      <c r="B3" s="115"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="117" t="s">
         <v>65</v>
       </c>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95"/>
-      <c r="Q3" s="95"/>
-      <c r="R3" s="95"/>
-      <c r="S3" s="95"/>
-      <c r="T3" s="95"/>
-      <c r="U3" s="95"/>
-      <c r="V3" s="95"/>
-      <c r="W3" s="95"/>
-      <c r="X3" s="95"/>
-      <c r="Y3" s="95"/>
-      <c r="Z3" s="95"/>
-      <c r="AA3" s="95"/>
-      <c r="AB3" s="95"/>
-      <c r="AC3" s="96"/>
-      <c r="AD3" s="97" t="s">
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
+      <c r="U3" s="115"/>
+      <c r="V3" s="115"/>
+      <c r="W3" s="115"/>
+      <c r="X3" s="115"/>
+      <c r="Y3" s="115"/>
+      <c r="Z3" s="115"/>
+      <c r="AA3" s="115"/>
+      <c r="AB3" s="115"/>
+      <c r="AC3" s="116"/>
+      <c r="AD3" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="AE3" s="96"/>
-      <c r="AF3" s="97" t="s">
+      <c r="AE3" s="116"/>
+      <c r="AF3" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="AG3" s="98"/>
+      <c r="AG3" s="118"/>
     </row>
     <row r="4" spans="1:33">
       <c r="A4" s="28"/>
@@ -20490,19 +20550,19 @@
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
       <c r="I7" s="37"/>
-      <c r="J7" s="107" t="s">
+      <c r="J7" s="119" t="s">
         <v>49</v>
       </c>
-      <c r="K7" s="108"/>
-      <c r="L7" s="108"/>
-      <c r="M7" s="108"/>
-      <c r="N7" s="108"/>
-      <c r="O7" s="108"/>
-      <c r="P7" s="108"/>
-      <c r="Q7" s="108"/>
-      <c r="R7" s="108"/>
-      <c r="S7" s="108"/>
-      <c r="T7" s="109"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="120"/>
+      <c r="M7" s="120"/>
+      <c r="N7" s="120"/>
+      <c r="O7" s="120"/>
+      <c r="P7" s="120"/>
+      <c r="Q7" s="120"/>
+      <c r="R7" s="120"/>
+      <c r="S7" s="120"/>
+      <c r="T7" s="121"/>
       <c r="U7" s="37"/>
       <c r="V7" s="32"/>
       <c r="W7" s="32"/>
@@ -20527,17 +20587,17 @@
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
       <c r="I8" s="37"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="111"/>
-      <c r="L8" s="111"/>
-      <c r="M8" s="111"/>
-      <c r="N8" s="111"/>
-      <c r="O8" s="111"/>
-      <c r="P8" s="111"/>
-      <c r="Q8" s="111"/>
-      <c r="R8" s="111"/>
-      <c r="S8" s="111"/>
-      <c r="T8" s="112"/>
+      <c r="J8" s="122"/>
+      <c r="K8" s="123"/>
+      <c r="L8" s="123"/>
+      <c r="M8" s="123"/>
+      <c r="N8" s="123"/>
+      <c r="O8" s="123"/>
+      <c r="P8" s="123"/>
+      <c r="Q8" s="123"/>
+      <c r="R8" s="123"/>
+      <c r="S8" s="123"/>
+      <c r="T8" s="124"/>
       <c r="U8" s="37"/>
       <c r="V8" s="32"/>
       <c r="W8" s="32"/>
@@ -20779,11 +20839,11 @@
         <v>60</v>
       </c>
       <c r="N15" s="32"/>
-      <c r="O15" s="125" t="s">
+      <c r="O15" s="137" t="s">
         <v>63</v>
       </c>
-      <c r="P15" s="123"/>
-      <c r="Q15" s="124"/>
+      <c r="P15" s="135"/>
+      <c r="Q15" s="136"/>
       <c r="R15" s="37"/>
       <c r="S15" s="37"/>
       <c r="T15" s="42"/>
@@ -20923,11 +20983,11 @@
         <v>61</v>
       </c>
       <c r="N19" s="32"/>
-      <c r="O19" s="122" t="s">
+      <c r="O19" s="134" t="s">
         <v>64</v>
       </c>
-      <c r="P19" s="123"/>
-      <c r="Q19" s="124"/>
+      <c r="P19" s="135"/>
+      <c r="Q19" s="136"/>
       <c r="R19" s="32"/>
       <c r="S19" s="32"/>
       <c r="T19" s="54"/>
@@ -21274,11 +21334,11 @@
       <c r="K29" s="32"/>
       <c r="L29" s="32"/>
       <c r="M29" s="32"/>
-      <c r="N29" s="113" t="s">
+      <c r="N29" s="125" t="s">
         <v>62</v>
       </c>
-      <c r="O29" s="114"/>
-      <c r="P29" s="115"/>
+      <c r="O29" s="126"/>
+      <c r="P29" s="127"/>
       <c r="Q29" s="32"/>
       <c r="R29" s="32"/>
       <c r="S29" s="32"/>
@@ -21311,9 +21371,9 @@
       <c r="K30" s="32"/>
       <c r="L30" s="32"/>
       <c r="M30" s="32"/>
-      <c r="N30" s="116"/>
-      <c r="O30" s="117"/>
-      <c r="P30" s="118"/>
+      <c r="N30" s="128"/>
+      <c r="O30" s="129"/>
+      <c r="P30" s="130"/>
       <c r="Q30" s="32"/>
       <c r="R30" s="32"/>
       <c r="S30" s="32"/>
@@ -21517,19 +21577,19 @@
       <c r="G36" s="32"/>
       <c r="H36" s="32"/>
       <c r="I36" s="32"/>
-      <c r="J36" s="107" t="s">
+      <c r="J36" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="K36" s="108"/>
-      <c r="L36" s="108"/>
-      <c r="M36" s="108"/>
-      <c r="N36" s="108"/>
-      <c r="O36" s="108"/>
-      <c r="P36" s="108"/>
-      <c r="Q36" s="108"/>
-      <c r="R36" s="108"/>
-      <c r="S36" s="108"/>
-      <c r="T36" s="109"/>
+      <c r="K36" s="120"/>
+      <c r="L36" s="120"/>
+      <c r="M36" s="120"/>
+      <c r="N36" s="120"/>
+      <c r="O36" s="120"/>
+      <c r="P36" s="120"/>
+      <c r="Q36" s="120"/>
+      <c r="R36" s="120"/>
+      <c r="S36" s="120"/>
+      <c r="T36" s="121"/>
       <c r="U36" s="32"/>
       <c r="V36" s="32"/>
       <c r="W36" s="32"/>
@@ -21554,17 +21614,17 @@
       <c r="G37" s="32"/>
       <c r="H37" s="32"/>
       <c r="I37" s="32"/>
-      <c r="J37" s="110"/>
-      <c r="K37" s="111"/>
-      <c r="L37" s="111"/>
-      <c r="M37" s="111"/>
-      <c r="N37" s="111"/>
-      <c r="O37" s="111"/>
-      <c r="P37" s="111"/>
-      <c r="Q37" s="111"/>
-      <c r="R37" s="111"/>
-      <c r="S37" s="111"/>
-      <c r="T37" s="112"/>
+      <c r="J37" s="122"/>
+      <c r="K37" s="123"/>
+      <c r="L37" s="123"/>
+      <c r="M37" s="123"/>
+      <c r="N37" s="123"/>
+      <c r="O37" s="123"/>
+      <c r="P37" s="123"/>
+      <c r="Q37" s="123"/>
+      <c r="R37" s="123"/>
+      <c r="S37" s="123"/>
+      <c r="T37" s="124"/>
       <c r="U37" s="32"/>
       <c r="V37" s="32"/>
       <c r="W37" s="32"/>
@@ -22071,11 +22131,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="J7:T8"/>
-    <mergeCell ref="N29:P30"/>
-    <mergeCell ref="J36:T37"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="O15:Q15"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
@@ -22085,6 +22140,11 @@
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="J7:T8"/>
+    <mergeCell ref="N29:P30"/>
+    <mergeCell ref="J36:T37"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="O15:Q15"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <hyperlinks>
@@ -22117,130 +22177,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="100"/>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
-      <c r="W1" s="100"/>
-      <c r="X1" s="100"/>
-      <c r="Y1" s="100"/>
-      <c r="Z1" s="100"/>
-      <c r="AA1" s="100"/>
-      <c r="AB1" s="100"/>
-      <c r="AC1" s="100"/>
-      <c r="AD1" s="100"/>
-      <c r="AE1" s="100"/>
-      <c r="AF1" s="100"/>
-      <c r="AG1" s="100"/>
-      <c r="AH1" s="101"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="107"/>
+      <c r="T1" s="107"/>
+      <c r="U1" s="107"/>
+      <c r="V1" s="107"/>
+      <c r="W1" s="107"/>
+      <c r="X1" s="107"/>
+      <c r="Y1" s="107"/>
+      <c r="Z1" s="107"/>
+      <c r="AA1" s="107"/>
+      <c r="AB1" s="107"/>
+      <c r="AC1" s="107"/>
+      <c r="AD1" s="107"/>
+      <c r="AE1" s="107"/>
+      <c r="AF1" s="107"/>
+      <c r="AG1" s="107"/>
+      <c r="AH1" s="108"/>
     </row>
     <row r="2" spans="1:34">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="105" t="s">
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="103"/>
-      <c r="S2" s="103"/>
-      <c r="T2" s="103"/>
-      <c r="U2" s="103"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="103"/>
-      <c r="X2" s="103"/>
-      <c r="Y2" s="103"/>
-      <c r="Z2" s="103"/>
-      <c r="AA2" s="103"/>
-      <c r="AB2" s="103"/>
-      <c r="AC2" s="103"/>
-      <c r="AD2" s="104"/>
-      <c r="AE2" s="105" t="s">
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
+      <c r="W2" s="110"/>
+      <c r="X2" s="110"/>
+      <c r="Y2" s="110"/>
+      <c r="Z2" s="110"/>
+      <c r="AA2" s="110"/>
+      <c r="AB2" s="110"/>
+      <c r="AC2" s="110"/>
+      <c r="AD2" s="111"/>
+      <c r="AE2" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="AF2" s="104"/>
-      <c r="AG2" s="105" t="s">
+      <c r="AF2" s="111"/>
+      <c r="AG2" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="AH2" s="106"/>
+      <c r="AH2" s="113"/>
     </row>
     <row r="3" spans="1:34" ht="14.25" thickBot="1">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="97" t="s">
+      <c r="B3" s="115"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="117" t="s">
         <v>118</v>
       </c>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95"/>
-      <c r="Q3" s="95"/>
-      <c r="R3" s="95"/>
-      <c r="S3" s="95"/>
-      <c r="T3" s="95"/>
-      <c r="U3" s="95"/>
-      <c r="V3" s="95"/>
-      <c r="W3" s="95"/>
-      <c r="X3" s="95"/>
-      <c r="Y3" s="95"/>
-      <c r="Z3" s="95"/>
-      <c r="AA3" s="95"/>
-      <c r="AB3" s="95"/>
-      <c r="AC3" s="95"/>
-      <c r="AD3" s="96"/>
-      <c r="AE3" s="97" t="s">
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
+      <c r="U3" s="115"/>
+      <c r="V3" s="115"/>
+      <c r="W3" s="115"/>
+      <c r="X3" s="115"/>
+      <c r="Y3" s="115"/>
+      <c r="Z3" s="115"/>
+      <c r="AA3" s="115"/>
+      <c r="AB3" s="115"/>
+      <c r="AC3" s="115"/>
+      <c r="AD3" s="116"/>
+      <c r="AE3" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="AF3" s="96"/>
-      <c r="AG3" s="97" t="s">
+      <c r="AF3" s="116"/>
+      <c r="AG3" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="AH3" s="98"/>
+      <c r="AH3" s="118"/>
     </row>
     <row r="4" spans="1:34">
       <c r="A4" s="28"/>
@@ -22391,25 +22451,25 @@
       <c r="B8" s="32"/>
       <c r="C8" s="32"/>
       <c r="D8" s="63"/>
-      <c r="E8" s="114" t="s">
+      <c r="E8" s="126" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="114"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="114"/>
-      <c r="L8" s="114"/>
-      <c r="M8" s="114"/>
-      <c r="N8" s="114"/>
-      <c r="O8" s="114"/>
-      <c r="P8" s="114"/>
-      <c r="Q8" s="114"/>
-      <c r="R8" s="114"/>
-      <c r="S8" s="114"/>
-      <c r="T8" s="114"/>
-      <c r="U8" s="114"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="126"/>
+      <c r="H8" s="126"/>
+      <c r="I8" s="126"/>
+      <c r="J8" s="126"/>
+      <c r="K8" s="126"/>
+      <c r="L8" s="126"/>
+      <c r="M8" s="126"/>
+      <c r="N8" s="126"/>
+      <c r="O8" s="126"/>
+      <c r="P8" s="126"/>
+      <c r="Q8" s="126"/>
+      <c r="R8" s="126"/>
+      <c r="S8" s="126"/>
+      <c r="T8" s="126"/>
+      <c r="U8" s="126"/>
       <c r="V8" s="64"/>
       <c r="W8" s="37"/>
       <c r="X8" s="32"/>
@@ -22429,23 +22489,23 @@
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
       <c r="D9" s="65"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="111"/>
-      <c r="G9" s="111"/>
-      <c r="H9" s="111"/>
-      <c r="I9" s="111"/>
-      <c r="J9" s="111"/>
-      <c r="K9" s="111"/>
-      <c r="L9" s="111"/>
-      <c r="M9" s="111"/>
-      <c r="N9" s="111"/>
-      <c r="O9" s="111"/>
-      <c r="P9" s="111"/>
-      <c r="Q9" s="111"/>
-      <c r="R9" s="111"/>
-      <c r="S9" s="111"/>
-      <c r="T9" s="111"/>
-      <c r="U9" s="111"/>
+      <c r="E9" s="123"/>
+      <c r="F9" s="123"/>
+      <c r="G9" s="123"/>
+      <c r="H9" s="123"/>
+      <c r="I9" s="123"/>
+      <c r="J9" s="123"/>
+      <c r="K9" s="123"/>
+      <c r="L9" s="123"/>
+      <c r="M9" s="123"/>
+      <c r="N9" s="123"/>
+      <c r="O9" s="123"/>
+      <c r="P9" s="123"/>
+      <c r="Q9" s="123"/>
+      <c r="R9" s="123"/>
+      <c r="S9" s="123"/>
+      <c r="T9" s="123"/>
+      <c r="U9" s="123"/>
       <c r="V9" s="66"/>
       <c r="W9" s="37"/>
       <c r="X9" s="32"/>
@@ -22542,18 +22602,18 @@
       <c r="E12" s="37"/>
       <c r="F12" s="39"/>
       <c r="G12" s="37"/>
-      <c r="H12" s="129" t="s">
+      <c r="H12" s="138" t="s">
         <v>120</v>
       </c>
-      <c r="I12" s="130"/>
+      <c r="I12" s="139"/>
       <c r="J12" s="74"/>
       <c r="K12" s="74"/>
       <c r="L12" s="74"/>
       <c r="M12" s="74"/>
-      <c r="N12" s="129" t="s">
+      <c r="N12" s="138" t="s">
         <v>124</v>
       </c>
-      <c r="O12" s="130"/>
+      <c r="O12" s="139"/>
       <c r="P12" s="74"/>
       <c r="Q12" s="74"/>
       <c r="R12" s="74"/>
@@ -22582,18 +22642,18 @@
       <c r="E13" s="37"/>
       <c r="F13" s="39"/>
       <c r="G13" s="37"/>
-      <c r="H13" s="129" t="s">
+      <c r="H13" s="138" t="s">
         <v>121</v>
       </c>
-      <c r="I13" s="130"/>
+      <c r="I13" s="139"/>
       <c r="J13" s="74"/>
       <c r="K13" s="74"/>
       <c r="L13" s="74"/>
       <c r="M13" s="74"/>
-      <c r="N13" s="129" t="s">
+      <c r="N13" s="138" t="s">
         <v>125</v>
       </c>
-      <c r="O13" s="130"/>
+      <c r="O13" s="139"/>
       <c r="P13" s="74"/>
       <c r="Q13" s="74"/>
       <c r="R13" s="74"/>
@@ -22622,18 +22682,18 @@
       <c r="E14" s="37"/>
       <c r="F14" s="39"/>
       <c r="G14" s="37"/>
-      <c r="H14" s="129" t="s">
+      <c r="H14" s="138" t="s">
         <v>60</v>
       </c>
-      <c r="I14" s="130"/>
+      <c r="I14" s="139"/>
       <c r="J14" s="74"/>
       <c r="K14" s="74"/>
       <c r="L14" s="74"/>
       <c r="M14" s="74"/>
-      <c r="N14" s="129" t="s">
+      <c r="N14" s="138" t="s">
         <v>126</v>
       </c>
-      <c r="O14" s="130"/>
+      <c r="O14" s="139"/>
       <c r="P14" s="74"/>
       <c r="Q14" s="74" t="s">
         <v>127</v>
@@ -22666,16 +22726,16 @@
       <c r="E15" s="37"/>
       <c r="F15" s="37"/>
       <c r="G15" s="37"/>
-      <c r="H15" s="129" t="s">
+      <c r="H15" s="138" t="s">
         <v>122</v>
       </c>
-      <c r="I15" s="130"/>
-      <c r="J15" s="129" t="s">
+      <c r="I15" s="139"/>
+      <c r="J15" s="138" t="s">
         <v>123</v>
       </c>
-      <c r="K15" s="131"/>
-      <c r="L15" s="131"/>
-      <c r="M15" s="130"/>
+      <c r="K15" s="140"/>
+      <c r="L15" s="140"/>
+      <c r="M15" s="139"/>
       <c r="N15" s="47"/>
       <c r="O15" s="74"/>
       <c r="P15" s="48"/>
@@ -22717,10 +22777,10 @@
       <c r="P16" s="37"/>
       <c r="Q16" s="37"/>
       <c r="R16" s="37"/>
-      <c r="S16" s="127" t="s">
+      <c r="S16" s="142" t="s">
         <v>129</v>
       </c>
-      <c r="T16" s="128"/>
+      <c r="T16" s="143"/>
       <c r="U16" s="37"/>
       <c r="V16" s="62"/>
       <c r="W16" s="37"/>
@@ -22793,17 +22853,17 @@
       <c r="J18" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="K18" s="126" t="s">
+      <c r="K18" s="141" t="s">
         <v>39</v>
       </c>
-      <c r="L18" s="126"/>
+      <c r="L18" s="141"/>
       <c r="M18" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="N18" s="126" t="s">
+      <c r="N18" s="141" t="s">
         <v>25</v>
       </c>
-      <c r="O18" s="126"/>
+      <c r="O18" s="141"/>
       <c r="P18" s="57" t="s">
         <v>116</v>
       </c>
@@ -22813,10 +22873,10 @@
       <c r="R18" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="S18" s="126" t="s">
+      <c r="S18" s="141" t="s">
         <v>113</v>
       </c>
-      <c r="T18" s="126"/>
+      <c r="T18" s="141"/>
       <c r="U18" s="37"/>
       <c r="V18" s="62"/>
       <c r="W18" s="37"/>
@@ -22860,10 +22920,10 @@
       <c r="M19" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="N19" s="126" t="s">
+      <c r="N19" s="141" t="s">
         <v>24</v>
       </c>
-      <c r="O19" s="126"/>
+      <c r="O19" s="141"/>
       <c r="P19" s="57" t="s">
         <v>92</v>
       </c>
@@ -22922,10 +22982,10 @@
       <c r="M20" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="N20" s="126" t="s">
+      <c r="N20" s="141" t="s">
         <v>24</v>
       </c>
-      <c r="O20" s="126"/>
+      <c r="O20" s="141"/>
       <c r="P20" s="57" t="s">
         <v>92</v>
       </c>
@@ -22984,10 +23044,10 @@
       <c r="M21" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="N21" s="126" t="s">
+      <c r="N21" s="141" t="s">
         <v>24</v>
       </c>
-      <c r="O21" s="126"/>
+      <c r="O21" s="141"/>
       <c r="P21" s="57" t="s">
         <v>92</v>
       </c>
@@ -23046,10 +23106,10 @@
       <c r="M22" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="N22" s="126" t="s">
+      <c r="N22" s="141" t="s">
         <v>24</v>
       </c>
-      <c r="O22" s="126"/>
+      <c r="O22" s="141"/>
       <c r="P22" s="57" t="s">
         <v>92</v>
       </c>
@@ -23108,10 +23168,10 @@
       <c r="M23" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="N23" s="126" t="s">
+      <c r="N23" s="141" t="s">
         <v>24</v>
       </c>
-      <c r="O23" s="126"/>
+      <c r="O23" s="141"/>
       <c r="P23" s="57" t="s">
         <v>92</v>
       </c>
@@ -23170,10 +23230,10 @@
       <c r="M24" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="N24" s="126" t="s">
+      <c r="N24" s="141" t="s">
         <v>69</v>
       </c>
-      <c r="O24" s="126"/>
+      <c r="O24" s="141"/>
       <c r="P24" s="57" t="s">
         <v>92</v>
       </c>
@@ -23232,10 +23292,10 @@
       <c r="M25" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="N25" s="126" t="s">
+      <c r="N25" s="141" t="s">
         <v>69</v>
       </c>
-      <c r="O25" s="126"/>
+      <c r="O25" s="141"/>
       <c r="P25" s="57" t="s">
         <v>92</v>
       </c>
@@ -23294,10 +23354,10 @@
       <c r="M26" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="N26" s="126" t="s">
+      <c r="N26" s="141" t="s">
         <v>69</v>
       </c>
-      <c r="O26" s="126"/>
+      <c r="O26" s="141"/>
       <c r="P26" s="57" t="s">
         <v>92</v>
       </c>
@@ -23356,10 +23416,10 @@
       <c r="M27" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="N27" s="126" t="s">
+      <c r="N27" s="141" t="s">
         <v>69</v>
       </c>
-      <c r="O27" s="126"/>
+      <c r="O27" s="141"/>
       <c r="P27" s="57" t="s">
         <v>92</v>
       </c>
@@ -23418,10 +23478,10 @@
       <c r="M28" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="N28" s="126" t="s">
+      <c r="N28" s="141" t="s">
         <v>69</v>
       </c>
-      <c r="O28" s="126"/>
+      <c r="O28" s="141"/>
       <c r="P28" s="57" t="s">
         <v>92</v>
       </c>
@@ -23480,10 +23540,10 @@
       <c r="M29" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="N29" s="126" t="s">
+      <c r="N29" s="141" t="s">
         <v>24</v>
       </c>
-      <c r="O29" s="126"/>
+      <c r="O29" s="141"/>
       <c r="P29" s="57" t="s">
         <v>68</v>
       </c>
@@ -23542,10 +23602,10 @@
       <c r="M30" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="N30" s="126" t="s">
+      <c r="N30" s="141" t="s">
         <v>24</v>
       </c>
-      <c r="O30" s="126"/>
+      <c r="O30" s="141"/>
       <c r="P30" s="57" t="s">
         <v>68</v>
       </c>
@@ -23604,10 +23664,10 @@
       <c r="M31" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="N31" s="126" t="s">
+      <c r="N31" s="141" t="s">
         <v>24</v>
       </c>
-      <c r="O31" s="126"/>
+      <c r="O31" s="141"/>
       <c r="P31" s="57" t="s">
         <v>68</v>
       </c>
@@ -23666,10 +23726,10 @@
       <c r="M32" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="N32" s="126" t="s">
+      <c r="N32" s="141" t="s">
         <v>24</v>
       </c>
-      <c r="O32" s="126"/>
+      <c r="O32" s="141"/>
       <c r="P32" s="57" t="s">
         <v>68</v>
       </c>
@@ -23728,10 +23788,10 @@
       <c r="M33" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="N33" s="126" t="s">
+      <c r="N33" s="141" t="s">
         <v>24</v>
       </c>
-      <c r="O33" s="126"/>
+      <c r="O33" s="141"/>
       <c r="P33" s="57" t="s">
         <v>68</v>
       </c>
@@ -23790,10 +23850,10 @@
       <c r="M34" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="N34" s="126" t="s">
+      <c r="N34" s="141" t="s">
         <v>69</v>
       </c>
-      <c r="O34" s="126"/>
+      <c r="O34" s="141"/>
       <c r="P34" s="57" t="s">
         <v>68</v>
       </c>
@@ -23852,10 +23912,10 @@
       <c r="M35" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="N35" s="126" t="s">
+      <c r="N35" s="141" t="s">
         <v>69</v>
       </c>
-      <c r="O35" s="126"/>
+      <c r="O35" s="141"/>
       <c r="P35" s="57" t="s">
         <v>68</v>
       </c>
@@ -23914,10 +23974,10 @@
       <c r="M36" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="N36" s="126" t="s">
+      <c r="N36" s="141" t="s">
         <v>69</v>
       </c>
-      <c r="O36" s="126"/>
+      <c r="O36" s="141"/>
       <c r="P36" s="57" t="s">
         <v>68</v>
       </c>
@@ -23976,10 +24036,10 @@
       <c r="M37" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="N37" s="126" t="s">
+      <c r="N37" s="141" t="s">
         <v>69</v>
       </c>
-      <c r="O37" s="126"/>
+      <c r="O37" s="141"/>
       <c r="P37" s="57" t="s">
         <v>68</v>
       </c>
@@ -24038,10 +24098,10 @@
       <c r="M38" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="N38" s="126" t="s">
+      <c r="N38" s="141" t="s">
         <v>69</v>
       </c>
-      <c r="O38" s="126"/>
+      <c r="O38" s="141"/>
       <c r="P38" s="57" t="s">
         <v>68</v>
       </c>
@@ -24221,25 +24281,25 @@
       <c r="B43" s="32"/>
       <c r="C43" s="32"/>
       <c r="D43" s="67"/>
-      <c r="E43" s="108" t="s">
+      <c r="E43" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="F43" s="108"/>
-      <c r="G43" s="108"/>
-      <c r="H43" s="108"/>
-      <c r="I43" s="108"/>
-      <c r="J43" s="108"/>
-      <c r="K43" s="108"/>
-      <c r="L43" s="108"/>
-      <c r="M43" s="108"/>
-      <c r="N43" s="108"/>
-      <c r="O43" s="108"/>
-      <c r="P43" s="108"/>
-      <c r="Q43" s="108"/>
-      <c r="R43" s="108"/>
-      <c r="S43" s="108"/>
-      <c r="T43" s="108"/>
-      <c r="U43" s="108"/>
+      <c r="F43" s="120"/>
+      <c r="G43" s="120"/>
+      <c r="H43" s="120"/>
+      <c r="I43" s="120"/>
+      <c r="J43" s="120"/>
+      <c r="K43" s="120"/>
+      <c r="L43" s="120"/>
+      <c r="M43" s="120"/>
+      <c r="N43" s="120"/>
+      <c r="O43" s="120"/>
+      <c r="P43" s="120"/>
+      <c r="Q43" s="120"/>
+      <c r="R43" s="120"/>
+      <c r="S43" s="120"/>
+      <c r="T43" s="120"/>
+      <c r="U43" s="120"/>
       <c r="V43" s="68"/>
       <c r="W43" s="37"/>
       <c r="X43" s="32"/>
@@ -24259,23 +24319,23 @@
       <c r="B44" s="32"/>
       <c r="C44" s="32"/>
       <c r="D44" s="69"/>
-      <c r="E44" s="117"/>
-      <c r="F44" s="117"/>
-      <c r="G44" s="117"/>
-      <c r="H44" s="117"/>
-      <c r="I44" s="117"/>
-      <c r="J44" s="117"/>
-      <c r="K44" s="117"/>
-      <c r="L44" s="117"/>
-      <c r="M44" s="117"/>
-      <c r="N44" s="117"/>
-      <c r="O44" s="117"/>
-      <c r="P44" s="117"/>
-      <c r="Q44" s="117"/>
-      <c r="R44" s="117"/>
-      <c r="S44" s="117"/>
-      <c r="T44" s="117"/>
-      <c r="U44" s="117"/>
+      <c r="E44" s="129"/>
+      <c r="F44" s="129"/>
+      <c r="G44" s="129"/>
+      <c r="H44" s="129"/>
+      <c r="I44" s="129"/>
+      <c r="J44" s="129"/>
+      <c r="K44" s="129"/>
+      <c r="L44" s="129"/>
+      <c r="M44" s="129"/>
+      <c r="N44" s="129"/>
+      <c r="O44" s="129"/>
+      <c r="P44" s="129"/>
+      <c r="Q44" s="129"/>
+      <c r="R44" s="129"/>
+      <c r="S44" s="129"/>
+      <c r="T44" s="129"/>
+      <c r="U44" s="129"/>
       <c r="V44" s="70"/>
       <c r="W44" s="37"/>
       <c r="X44" s="32"/>
@@ -24760,24 +24820,15 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="E43:U44"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="H3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="H2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
     <mergeCell ref="N29:O29"/>
     <mergeCell ref="E8:U9"/>
     <mergeCell ref="K18:L18"/>
@@ -24794,15 +24845,24 @@
     <mergeCell ref="N26:O26"/>
     <mergeCell ref="N27:O27"/>
     <mergeCell ref="N28:O28"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="H3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="A1:AH1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="H2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="E43:U44"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="N13:O13"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24829,127 +24889,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="100"/>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
-      <c r="W1" s="100"/>
-      <c r="X1" s="100"/>
-      <c r="Y1" s="100"/>
-      <c r="Z1" s="100"/>
-      <c r="AA1" s="100"/>
-      <c r="AB1" s="100"/>
-      <c r="AC1" s="100"/>
-      <c r="AD1" s="100"/>
-      <c r="AE1" s="100"/>
-      <c r="AF1" s="100"/>
-      <c r="AG1" s="101"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="107"/>
+      <c r="T1" s="107"/>
+      <c r="U1" s="107"/>
+      <c r="V1" s="107"/>
+      <c r="W1" s="107"/>
+      <c r="X1" s="107"/>
+      <c r="Y1" s="107"/>
+      <c r="Z1" s="107"/>
+      <c r="AA1" s="107"/>
+      <c r="AB1" s="107"/>
+      <c r="AC1" s="107"/>
+      <c r="AD1" s="107"/>
+      <c r="AE1" s="107"/>
+      <c r="AF1" s="107"/>
+      <c r="AG1" s="108"/>
     </row>
     <row r="2" spans="1:33">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="105" t="s">
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="103"/>
-      <c r="S2" s="103"/>
-      <c r="T2" s="103"/>
-      <c r="U2" s="103"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="103"/>
-      <c r="X2" s="103"/>
-      <c r="Y2" s="103"/>
-      <c r="Z2" s="103"/>
-      <c r="AA2" s="103"/>
-      <c r="AB2" s="103"/>
-      <c r="AC2" s="104"/>
-      <c r="AD2" s="105" t="s">
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
+      <c r="W2" s="110"/>
+      <c r="X2" s="110"/>
+      <c r="Y2" s="110"/>
+      <c r="Z2" s="110"/>
+      <c r="AA2" s="110"/>
+      <c r="AB2" s="110"/>
+      <c r="AC2" s="111"/>
+      <c r="AD2" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="AE2" s="104"/>
-      <c r="AF2" s="105" t="s">
+      <c r="AE2" s="111"/>
+      <c r="AF2" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="AG2" s="106"/>
+      <c r="AG2" s="113"/>
     </row>
     <row r="3" spans="1:33" ht="14.25" thickBot="1">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="97" t="s">
+      <c r="B3" s="115"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="117" t="s">
         <v>133</v>
       </c>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95"/>
-      <c r="Q3" s="95"/>
-      <c r="R3" s="95"/>
-      <c r="S3" s="95"/>
-      <c r="T3" s="95"/>
-      <c r="U3" s="95"/>
-      <c r="V3" s="95"/>
-      <c r="W3" s="95"/>
-      <c r="X3" s="95"/>
-      <c r="Y3" s="95"/>
-      <c r="Z3" s="95"/>
-      <c r="AA3" s="95"/>
-      <c r="AB3" s="95"/>
-      <c r="AC3" s="96"/>
-      <c r="AD3" s="97" t="s">
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
+      <c r="U3" s="115"/>
+      <c r="V3" s="115"/>
+      <c r="W3" s="115"/>
+      <c r="X3" s="115"/>
+      <c r="Y3" s="115"/>
+      <c r="Z3" s="115"/>
+      <c r="AA3" s="115"/>
+      <c r="AB3" s="115"/>
+      <c r="AC3" s="116"/>
+      <c r="AD3" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="AE3" s="96"/>
-      <c r="AF3" s="97" t="s">
+      <c r="AE3" s="116"/>
+      <c r="AF3" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="AG3" s="98"/>
+      <c r="AG3" s="118"/>
     </row>
     <row r="4" spans="1:33">
       <c r="A4" s="28"/>
@@ -25136,19 +25196,19 @@
       <c r="G9" s="32"/>
       <c r="H9" s="32"/>
       <c r="I9" s="37"/>
-      <c r="J9" s="107" t="s">
+      <c r="J9" s="119" t="s">
         <v>49</v>
       </c>
-      <c r="K9" s="108"/>
-      <c r="L9" s="108"/>
-      <c r="M9" s="108"/>
-      <c r="N9" s="108"/>
-      <c r="O9" s="108"/>
-      <c r="P9" s="108"/>
-      <c r="Q9" s="108"/>
-      <c r="R9" s="108"/>
-      <c r="S9" s="108"/>
-      <c r="T9" s="109"/>
+      <c r="K9" s="120"/>
+      <c r="L9" s="120"/>
+      <c r="M9" s="120"/>
+      <c r="N9" s="120"/>
+      <c r="O9" s="120"/>
+      <c r="P9" s="120"/>
+      <c r="Q9" s="120"/>
+      <c r="R9" s="120"/>
+      <c r="S9" s="120"/>
+      <c r="T9" s="121"/>
       <c r="U9" s="37"/>
       <c r="V9" s="37"/>
       <c r="W9" s="32"/>
@@ -25173,17 +25233,17 @@
       <c r="G10" s="32"/>
       <c r="H10" s="32"/>
       <c r="I10" s="37"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="111"/>
-      <c r="L10" s="111"/>
-      <c r="M10" s="111"/>
-      <c r="N10" s="111"/>
-      <c r="O10" s="111"/>
-      <c r="P10" s="111"/>
-      <c r="Q10" s="111"/>
-      <c r="R10" s="111"/>
-      <c r="S10" s="111"/>
-      <c r="T10" s="112"/>
+      <c r="J10" s="122"/>
+      <c r="K10" s="123"/>
+      <c r="L10" s="123"/>
+      <c r="M10" s="123"/>
+      <c r="N10" s="123"/>
+      <c r="O10" s="123"/>
+      <c r="P10" s="123"/>
+      <c r="Q10" s="123"/>
+      <c r="R10" s="123"/>
+      <c r="S10" s="123"/>
+      <c r="T10" s="124"/>
       <c r="U10" s="37"/>
       <c r="V10" s="37"/>
       <c r="W10" s="32"/>
@@ -25209,10 +25269,10 @@
       <c r="H11" s="32"/>
       <c r="I11" s="37"/>
       <c r="J11" s="38"/>
-      <c r="K11" s="132" t="s">
+      <c r="K11" s="144" t="s">
         <v>132</v>
       </c>
-      <c r="L11" s="132"/>
+      <c r="L11" s="144"/>
       <c r="M11" s="37"/>
       <c r="N11" s="37"/>
       <c r="O11" s="37"/>
@@ -26207,11 +26267,11 @@
       <c r="K38" s="37"/>
       <c r="L38" s="37"/>
       <c r="M38" s="37"/>
-      <c r="N38" s="113" t="s">
+      <c r="N38" s="125" t="s">
         <v>134</v>
       </c>
-      <c r="O38" s="114"/>
-      <c r="P38" s="115"/>
+      <c r="O38" s="126"/>
+      <c r="P38" s="127"/>
       <c r="Q38" s="37"/>
       <c r="R38" s="37"/>
       <c r="S38" s="37"/>
@@ -26244,9 +26304,9 @@
       <c r="K39" s="37"/>
       <c r="L39" s="37"/>
       <c r="M39" s="37"/>
-      <c r="N39" s="116"/>
-      <c r="O39" s="117"/>
-      <c r="P39" s="118"/>
+      <c r="N39" s="128"/>
+      <c r="O39" s="129"/>
+      <c r="P39" s="130"/>
       <c r="Q39" s="37"/>
       <c r="R39" s="37"/>
       <c r="S39" s="37"/>
@@ -26310,19 +26370,19 @@
       <c r="G41" s="32"/>
       <c r="H41" s="32"/>
       <c r="I41" s="37"/>
-      <c r="J41" s="107" t="s">
+      <c r="J41" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="K41" s="108"/>
-      <c r="L41" s="108"/>
-      <c r="M41" s="108"/>
-      <c r="N41" s="108"/>
-      <c r="O41" s="108"/>
-      <c r="P41" s="108"/>
-      <c r="Q41" s="108"/>
-      <c r="R41" s="108"/>
-      <c r="S41" s="108"/>
-      <c r="T41" s="109"/>
+      <c r="K41" s="120"/>
+      <c r="L41" s="120"/>
+      <c r="M41" s="120"/>
+      <c r="N41" s="120"/>
+      <c r="O41" s="120"/>
+      <c r="P41" s="120"/>
+      <c r="Q41" s="120"/>
+      <c r="R41" s="120"/>
+      <c r="S41" s="120"/>
+      <c r="T41" s="121"/>
       <c r="U41" s="37"/>
       <c r="V41" s="37"/>
       <c r="W41" s="32"/>
@@ -26347,17 +26407,17 @@
       <c r="G42" s="32"/>
       <c r="H42" s="32"/>
       <c r="I42" s="37"/>
-      <c r="J42" s="110"/>
-      <c r="K42" s="111"/>
-      <c r="L42" s="111"/>
-      <c r="M42" s="111"/>
-      <c r="N42" s="111"/>
-      <c r="O42" s="111"/>
-      <c r="P42" s="111"/>
-      <c r="Q42" s="111"/>
-      <c r="R42" s="111"/>
-      <c r="S42" s="111"/>
-      <c r="T42" s="112"/>
+      <c r="J42" s="122"/>
+      <c r="K42" s="123"/>
+      <c r="L42" s="123"/>
+      <c r="M42" s="123"/>
+      <c r="N42" s="123"/>
+      <c r="O42" s="123"/>
+      <c r="P42" s="123"/>
+      <c r="Q42" s="123"/>
+      <c r="R42" s="123"/>
+      <c r="S42" s="123"/>
+      <c r="T42" s="124"/>
       <c r="U42" s="37"/>
       <c r="V42" s="37"/>
       <c r="W42" s="32"/>
@@ -26763,127 +26823,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="100"/>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
-      <c r="W1" s="100"/>
-      <c r="X1" s="100"/>
-      <c r="Y1" s="100"/>
-      <c r="Z1" s="100"/>
-      <c r="AA1" s="100"/>
-      <c r="AB1" s="100"/>
-      <c r="AC1" s="100"/>
-      <c r="AD1" s="100"/>
-      <c r="AE1" s="100"/>
-      <c r="AF1" s="100"/>
-      <c r="AG1" s="101"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="107"/>
+      <c r="T1" s="107"/>
+      <c r="U1" s="107"/>
+      <c r="V1" s="107"/>
+      <c r="W1" s="107"/>
+      <c r="X1" s="107"/>
+      <c r="Y1" s="107"/>
+      <c r="Z1" s="107"/>
+      <c r="AA1" s="107"/>
+      <c r="AB1" s="107"/>
+      <c r="AC1" s="107"/>
+      <c r="AD1" s="107"/>
+      <c r="AE1" s="107"/>
+      <c r="AF1" s="107"/>
+      <c r="AG1" s="108"/>
     </row>
     <row r="2" spans="1:33">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="105" t="s">
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="103"/>
-      <c r="S2" s="103"/>
-      <c r="T2" s="103"/>
-      <c r="U2" s="103"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="103"/>
-      <c r="X2" s="103"/>
-      <c r="Y2" s="103"/>
-      <c r="Z2" s="103"/>
-      <c r="AA2" s="103"/>
-      <c r="AB2" s="103"/>
-      <c r="AC2" s="104"/>
-      <c r="AD2" s="105" t="s">
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
+      <c r="W2" s="110"/>
+      <c r="X2" s="110"/>
+      <c r="Y2" s="110"/>
+      <c r="Z2" s="110"/>
+      <c r="AA2" s="110"/>
+      <c r="AB2" s="110"/>
+      <c r="AC2" s="111"/>
+      <c r="AD2" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="AE2" s="104"/>
-      <c r="AF2" s="105" t="s">
+      <c r="AE2" s="111"/>
+      <c r="AF2" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="AG2" s="106"/>
+      <c r="AG2" s="113"/>
     </row>
     <row r="3" spans="1:33" ht="14.25" thickBot="1">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="97" t="s">
+      <c r="B3" s="115"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="117" t="s">
         <v>130</v>
       </c>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95"/>
-      <c r="Q3" s="95"/>
-      <c r="R3" s="95"/>
-      <c r="S3" s="95"/>
-      <c r="T3" s="95"/>
-      <c r="U3" s="95"/>
-      <c r="V3" s="95"/>
-      <c r="W3" s="95"/>
-      <c r="X3" s="95"/>
-      <c r="Y3" s="95"/>
-      <c r="Z3" s="95"/>
-      <c r="AA3" s="95"/>
-      <c r="AB3" s="95"/>
-      <c r="AC3" s="96"/>
-      <c r="AD3" s="97" t="s">
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
+      <c r="U3" s="115"/>
+      <c r="V3" s="115"/>
+      <c r="W3" s="115"/>
+      <c r="X3" s="115"/>
+      <c r="Y3" s="115"/>
+      <c r="Z3" s="115"/>
+      <c r="AA3" s="115"/>
+      <c r="AB3" s="115"/>
+      <c r="AC3" s="116"/>
+      <c r="AD3" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="AE3" s="96"/>
-      <c r="AF3" s="97" t="s">
+      <c r="AE3" s="116"/>
+      <c r="AF3" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="AG3" s="98"/>
+      <c r="AG3" s="118"/>
     </row>
     <row r="4" spans="1:33">
       <c r="A4" s="28"/>
@@ -27035,19 +27095,19 @@
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
       <c r="I8" s="37"/>
-      <c r="J8" s="107" t="s">
+      <c r="J8" s="119" t="s">
         <v>49</v>
       </c>
-      <c r="K8" s="108"/>
-      <c r="L8" s="108"/>
-      <c r="M8" s="108"/>
-      <c r="N8" s="108"/>
-      <c r="O8" s="108"/>
-      <c r="P8" s="108"/>
-      <c r="Q8" s="108"/>
-      <c r="R8" s="108"/>
-      <c r="S8" s="108"/>
-      <c r="T8" s="109"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="120"/>
+      <c r="M8" s="120"/>
+      <c r="N8" s="120"/>
+      <c r="O8" s="120"/>
+      <c r="P8" s="120"/>
+      <c r="Q8" s="120"/>
+      <c r="R8" s="120"/>
+      <c r="S8" s="120"/>
+      <c r="T8" s="121"/>
       <c r="U8" s="37"/>
       <c r="V8" s="37"/>
       <c r="W8" s="32"/>
@@ -27072,17 +27132,17 @@
       <c r="G9" s="32"/>
       <c r="H9" s="32"/>
       <c r="I9" s="37"/>
-      <c r="J9" s="110"/>
-      <c r="K9" s="111"/>
-      <c r="L9" s="111"/>
-      <c r="M9" s="111"/>
-      <c r="N9" s="111"/>
-      <c r="O9" s="111"/>
-      <c r="P9" s="111"/>
-      <c r="Q9" s="111"/>
-      <c r="R9" s="111"/>
-      <c r="S9" s="111"/>
-      <c r="T9" s="112"/>
+      <c r="J9" s="122"/>
+      <c r="K9" s="123"/>
+      <c r="L9" s="123"/>
+      <c r="M9" s="123"/>
+      <c r="N9" s="123"/>
+      <c r="O9" s="123"/>
+      <c r="P9" s="123"/>
+      <c r="Q9" s="123"/>
+      <c r="R9" s="123"/>
+      <c r="S9" s="123"/>
+      <c r="T9" s="124"/>
       <c r="U9" s="37"/>
       <c r="V9" s="37"/>
       <c r="W9" s="32"/>
@@ -27496,15 +27556,15 @@
       <c r="I21" s="37"/>
       <c r="J21" s="38"/>
       <c r="K21" s="37"/>
-      <c r="L21" s="121" t="s">
+      <c r="L21" s="133" t="s">
         <v>141</v>
       </c>
-      <c r="M21" s="121"/>
-      <c r="N21" s="121"/>
-      <c r="O21" s="121"/>
-      <c r="P21" s="121"/>
-      <c r="Q21" s="121"/>
-      <c r="R21" s="121"/>
+      <c r="M21" s="133"/>
+      <c r="N21" s="133"/>
+      <c r="O21" s="133"/>
+      <c r="P21" s="133"/>
+      <c r="Q21" s="133"/>
+      <c r="R21" s="133"/>
       <c r="S21" s="37"/>
       <c r="T21" s="42"/>
       <c r="U21" s="37"/>
@@ -27918,17 +27978,17 @@
       <c r="I33" s="37"/>
       <c r="J33" s="38"/>
       <c r="K33" s="37"/>
-      <c r="L33" s="113" t="s">
+      <c r="L33" s="125" t="s">
         <v>139</v>
       </c>
-      <c r="M33" s="114"/>
-      <c r="N33" s="115"/>
+      <c r="M33" s="126"/>
+      <c r="N33" s="127"/>
       <c r="O33" s="52"/>
-      <c r="P33" s="113" t="s">
+      <c r="P33" s="125" t="s">
         <v>140</v>
       </c>
-      <c r="Q33" s="114"/>
-      <c r="R33" s="115"/>
+      <c r="Q33" s="126"/>
+      <c r="R33" s="127"/>
       <c r="S33" s="37"/>
       <c r="T33" s="42"/>
       <c r="U33" s="37"/>
@@ -27957,13 +28017,13 @@
       <c r="I34" s="37"/>
       <c r="J34" s="38"/>
       <c r="K34" s="37"/>
-      <c r="L34" s="116"/>
-      <c r="M34" s="117"/>
-      <c r="N34" s="118"/>
+      <c r="L34" s="128"/>
+      <c r="M34" s="129"/>
+      <c r="N34" s="130"/>
       <c r="O34" s="37"/>
-      <c r="P34" s="116"/>
-      <c r="Q34" s="117"/>
-      <c r="R34" s="118"/>
+      <c r="P34" s="128"/>
+      <c r="Q34" s="129"/>
+      <c r="R34" s="130"/>
       <c r="S34" s="37"/>
       <c r="T34" s="42"/>
       <c r="U34" s="37"/>
@@ -28060,19 +28120,19 @@
       <c r="G37" s="32"/>
       <c r="H37" s="32"/>
       <c r="I37" s="37"/>
-      <c r="J37" s="107" t="s">
+      <c r="J37" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="K37" s="108"/>
-      <c r="L37" s="108"/>
-      <c r="M37" s="108"/>
-      <c r="N37" s="108"/>
-      <c r="O37" s="108"/>
-      <c r="P37" s="108"/>
-      <c r="Q37" s="108"/>
-      <c r="R37" s="108"/>
-      <c r="S37" s="108"/>
-      <c r="T37" s="109"/>
+      <c r="K37" s="120"/>
+      <c r="L37" s="120"/>
+      <c r="M37" s="120"/>
+      <c r="N37" s="120"/>
+      <c r="O37" s="120"/>
+      <c r="P37" s="120"/>
+      <c r="Q37" s="120"/>
+      <c r="R37" s="120"/>
+      <c r="S37" s="120"/>
+      <c r="T37" s="121"/>
       <c r="U37" s="37"/>
       <c r="V37" s="37"/>
       <c r="W37" s="32"/>
@@ -28097,17 +28157,17 @@
       <c r="G38" s="32"/>
       <c r="H38" s="32"/>
       <c r="I38" s="37"/>
-      <c r="J38" s="110"/>
-      <c r="K38" s="111"/>
-      <c r="L38" s="111"/>
-      <c r="M38" s="111"/>
-      <c r="N38" s="111"/>
-      <c r="O38" s="111"/>
-      <c r="P38" s="111"/>
-      <c r="Q38" s="111"/>
-      <c r="R38" s="111"/>
-      <c r="S38" s="111"/>
-      <c r="T38" s="112"/>
+      <c r="J38" s="122"/>
+      <c r="K38" s="123"/>
+      <c r="L38" s="123"/>
+      <c r="M38" s="123"/>
+      <c r="N38" s="123"/>
+      <c r="O38" s="123"/>
+      <c r="P38" s="123"/>
+      <c r="Q38" s="123"/>
+      <c r="R38" s="123"/>
+      <c r="S38" s="123"/>
+      <c r="T38" s="124"/>
       <c r="U38" s="37"/>
       <c r="V38" s="37"/>
       <c r="W38" s="32"/>
@@ -28579,11 +28639,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="J8:T9"/>
-    <mergeCell ref="L21:R21"/>
-    <mergeCell ref="J37:T38"/>
-    <mergeCell ref="L33:N34"/>
-    <mergeCell ref="P33:R34"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
@@ -28593,6 +28648,11 @@
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="J8:T9"/>
+    <mergeCell ref="L21:R21"/>
+    <mergeCell ref="J37:T38"/>
+    <mergeCell ref="L33:N34"/>
+    <mergeCell ref="P33:R34"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
